--- a/Sprint 1/Sprint_Backlog/Sprint 1 Backlog.xlsx
+++ b/Sprint 1/Sprint_Backlog/Sprint 1 Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Agile_Development_Project1\Sprint 1\Sprint_Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejacesnik/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E061B-24F2-467A-A193-069EFDC6074D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2445EC-7FE6-B14A-8360-19AFA157B1DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agile Sprint 1 Backlog" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>SPRINT BACKLOG - SPRINT 1</t>
   </si>
@@ -221,6 +221,15 @@
   <si>
     <t>A user can view results in a map</t>
   </si>
+  <si>
+    <t>Kamila, Kayla</t>
+  </si>
+  <si>
+    <t>Kamila, Neja</t>
+  </si>
+  <si>
+    <t>Kamila, Kayla, Neja</t>
+  </si>
 </sst>
 </file>
 
@@ -236,51 +245,60 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="21"/>
       <color rgb="FF7F7F7F"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color rgb="FF7F7F7F"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -475,7 +493,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -970,28 +988,28 @@
   </sheetPr>
   <dimension ref="A1:AC987"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="42.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="13" width="8.453125" customWidth="1"/>
-    <col min="14" max="14" width="1.453125" customWidth="1"/>
-    <col min="15" max="23" width="8.453125" customWidth="1"/>
-    <col min="24" max="24" width="2.54296875" customWidth="1"/>
-    <col min="25" max="29" width="8.453125" customWidth="1"/>
+    <col min="8" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="1.42578125" customWidth="1"/>
+    <col min="15" max="23" width="8.42578125" customWidth="1"/>
+    <col min="24" max="24" width="2.5703125" customWidth="1"/>
+    <col min="25" max="29" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="18" t="s">
         <v>0</v>
@@ -1024,7 +1042,7 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1099,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
     </row>
-    <row r="3" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <f t="shared" ref="A3:A14" si="0">ROW()-2</f>
         <v>1</v>
@@ -1137,7 +1155,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1193,7 +1211,7 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
     </row>
-    <row r="5" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1249,7 +1267,7 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1305,7 +1323,7 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1361,7 +1379,7 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
     </row>
-    <row r="8" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1417,7 +1435,7 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1473,7 +1491,7 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
     </row>
-    <row r="10" spans="1:29" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1529,7 +1547,7 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="1:29" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1585,7 +1603,7 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
     </row>
-    <row r="12" spans="1:29" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1641,7 +1659,7 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1697,7 +1715,7 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
     </row>
-    <row r="14" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1708,11 +1726,9 @@
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7">
         <v>10</v>
@@ -1753,7 +1769,7 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
     </row>
-    <row r="15" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
         <v>20</v>
@@ -1807,7 +1823,7 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
     </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="11"/>
@@ -1838,7 +1854,7 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
     </row>
-    <row r="17" spans="1:29" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="22"/>
       <c r="C17" s="19"/>
@@ -1869,7 +1885,7 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
     </row>
-    <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="11"/>
@@ -1900,7 +1916,7 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="11"/>
@@ -1931,7 +1947,7 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
     </row>
-    <row r="20" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="11"/>
@@ -1962,7 +1978,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="11"/>
@@ -1993,7 +2009,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
     </row>
-    <row r="22" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
@@ -2024,7 +2040,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11"/>
@@ -2055,7 +2071,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="11"/>
@@ -2086,7 +2102,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="11"/>
@@ -2117,7 +2133,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="11"/>
@@ -2148,7 +2164,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="11"/>
@@ -2179,7 +2195,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
@@ -2210,7 +2226,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="11"/>
@@ -2241,7 +2257,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11"/>
@@ -2272,7 +2288,7 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="11"/>
@@ -2303,7 +2319,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
     </row>
-    <row r="32" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="11"/>
@@ -2334,7 +2350,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
     </row>
-    <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="11"/>
@@ -2365,7 +2381,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
     </row>
-    <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="11"/>
@@ -2396,7 +2412,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
     </row>
-    <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="11"/>
@@ -2427,7 +2443,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
     </row>
-    <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="11"/>
@@ -2458,7 +2474,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
     </row>
-    <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="11"/>
@@ -2489,7 +2505,7 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
     </row>
-    <row r="38" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="11"/>
@@ -2520,7 +2536,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
     </row>
-    <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="11"/>
@@ -2551,7 +2567,7 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
     </row>
-    <row r="40" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="11"/>
@@ -2582,7 +2598,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
     </row>
-    <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="11"/>
@@ -2613,7 +2629,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
     </row>
-    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="11"/>
@@ -2644,7 +2660,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
     </row>
-    <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="11"/>
@@ -2675,7 +2691,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
     </row>
-    <row r="44" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="11"/>
@@ -2706,7 +2722,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
     </row>
-    <row r="45" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="11"/>
@@ -2737,7 +2753,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
     </row>
-    <row r="46" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="11"/>
@@ -2768,7 +2784,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
     </row>
-    <row r="47" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="11"/>
@@ -2799,7 +2815,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
     </row>
-    <row r="48" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="11"/>
@@ -2830,7 +2846,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
     </row>
-    <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="11"/>
@@ -2861,7 +2877,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
     </row>
-    <row r="50" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="11"/>
@@ -2892,7 +2908,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
     </row>
-    <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="11"/>
@@ -2923,7 +2939,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
     </row>
-    <row r="52" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="11"/>
@@ -2954,7 +2970,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
     </row>
-    <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="11"/>
@@ -2985,7 +3001,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
     </row>
-    <row r="54" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="11"/>
@@ -3016,7 +3032,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
     </row>
-    <row r="55" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="11"/>
@@ -3047,7 +3063,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
     </row>
-    <row r="56" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="11"/>
@@ -3078,7 +3094,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
     </row>
-    <row r="57" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="11"/>
@@ -3109,7 +3125,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
     </row>
-    <row r="58" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="11"/>
@@ -3140,7 +3156,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
     </row>
-    <row r="59" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="11"/>
@@ -3171,7 +3187,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
     </row>
-    <row r="60" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="11"/>
@@ -3202,7 +3218,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
     </row>
-    <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="11"/>
@@ -3233,7 +3249,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
     </row>
-    <row r="62" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="11"/>
@@ -3264,7 +3280,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
     </row>
-    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="11"/>
@@ -3295,7 +3311,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
     </row>
-    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="11"/>
@@ -3326,7 +3342,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
     </row>
-    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
       <c r="C65" s="11"/>
@@ -3357,7 +3373,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
     </row>
-    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
       <c r="C66" s="11"/>
@@ -3388,7 +3404,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
     </row>
-    <row r="67" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
       <c r="C67" s="11"/>
@@ -3419,7 +3435,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
     </row>
-    <row r="68" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
       <c r="C68" s="11"/>
@@ -3450,7 +3466,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
     </row>
-    <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
       <c r="C69" s="11"/>
@@ -3481,7 +3497,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
     </row>
-    <row r="70" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
       <c r="C70" s="11"/>
@@ -3512,7 +3528,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
     </row>
-    <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
       <c r="C71" s="11"/>
@@ -3543,7 +3559,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
     </row>
-    <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
       <c r="C72" s="11"/>
@@ -3574,7 +3590,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
     </row>
-    <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
       <c r="C73" s="11"/>
@@ -3605,7 +3621,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
     </row>
-    <row r="74" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
       <c r="C74" s="11"/>
@@ -3636,7 +3652,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
     </row>
-    <row r="75" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
       <c r="C75" s="11"/>
@@ -3667,7 +3683,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
     </row>
-    <row r="76" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
       <c r="C76" s="11"/>
@@ -3698,7 +3714,7 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
     </row>
-    <row r="77" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
       <c r="C77" s="11"/>
@@ -3729,7 +3745,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
     </row>
-    <row r="78" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
       <c r="C78" s="11"/>
@@ -3760,7 +3776,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
     </row>
-    <row r="79" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
       <c r="C79" s="11"/>
@@ -3791,7 +3807,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
     </row>
-    <row r="80" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
       <c r="C80" s="11"/>
@@ -3822,7 +3838,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
     </row>
-    <row r="81" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="11"/>
@@ -3853,7 +3869,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
     </row>
-    <row r="82" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="11"/>
@@ -3884,7 +3900,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
     </row>
-    <row r="83" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="11"/>
@@ -3915,7 +3931,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
     </row>
-    <row r="84" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="11"/>
@@ -3946,7 +3962,7 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
     </row>
-    <row r="85" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="11"/>
@@ -3977,7 +3993,7 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
     </row>
-    <row r="86" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="11"/>
@@ -4008,7 +4024,7 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
     </row>
-    <row r="87" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="11"/>
@@ -4039,7 +4055,7 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
     </row>
-    <row r="88" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="11"/>
@@ -4070,7 +4086,7 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
     </row>
-    <row r="89" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="11"/>
@@ -4101,7 +4117,7 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
     </row>
-    <row r="90" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="11"/>
@@ -4132,7 +4148,7 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
     </row>
-    <row r="91" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="11"/>
@@ -4163,7 +4179,7 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
     </row>
-    <row r="92" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="11"/>
@@ -4194,7 +4210,7 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
     </row>
-    <row r="93" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="11"/>
@@ -4225,7 +4241,7 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
     </row>
-    <row r="94" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="11"/>
@@ -4256,7 +4272,7 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
     </row>
-    <row r="95" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="11"/>
@@ -4287,7 +4303,7 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
     </row>
-    <row r="96" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="11"/>
@@ -4318,7 +4334,7 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
     </row>
-    <row r="97" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="11"/>
@@ -4349,7 +4365,7 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
     </row>
-    <row r="98" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="11"/>
@@ -4380,7 +4396,7 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
     </row>
-    <row r="99" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="11"/>
@@ -4411,7 +4427,7 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
     </row>
-    <row r="100" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="11"/>
@@ -4442,7 +4458,7 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
     </row>
-    <row r="101" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="11"/>
@@ -4473,7 +4489,7 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
     </row>
-    <row r="102" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="11"/>
@@ -4504,7 +4520,7 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
     </row>
-    <row r="103" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="11"/>
@@ -4535,7 +4551,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
     </row>
-    <row r="104" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="11"/>
@@ -4566,7 +4582,7 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
     </row>
-    <row r="105" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="11"/>
@@ -4597,7 +4613,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
     </row>
-    <row r="106" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="11"/>
@@ -4628,7 +4644,7 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
     </row>
-    <row r="107" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="11"/>
@@ -4659,7 +4675,7 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
     </row>
-    <row r="108" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="11"/>
@@ -4690,7 +4706,7 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
     </row>
-    <row r="109" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="11"/>
@@ -4721,7 +4737,7 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
     </row>
-    <row r="110" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="11"/>
@@ -4752,7 +4768,7 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
     </row>
-    <row r="111" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="11"/>
@@ -4783,7 +4799,7 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
     </row>
-    <row r="112" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="14"/>
@@ -4814,7 +4830,7 @@
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
     </row>
-    <row r="113" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="14"/>
@@ -4845,7 +4861,7 @@
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
     </row>
-    <row r="114" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="14"/>
@@ -4876,7 +4892,7 @@
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="14"/>
@@ -4907,7 +4923,7 @@
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
     </row>
-    <row r="116" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="14"/>
@@ -4938,7 +4954,7 @@
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
     </row>
-    <row r="117" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="14"/>
@@ -4969,7 +4985,7 @@
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
     </row>
-    <row r="118" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="14"/>
@@ -5000,7 +5016,7 @@
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
     </row>
-    <row r="119" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="14"/>
@@ -5031,7 +5047,7 @@
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
     </row>
-    <row r="120" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="14"/>
@@ -5062,7 +5078,7 @@
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
     </row>
-    <row r="121" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="14"/>
@@ -5093,7 +5109,7 @@
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
     </row>
-    <row r="122" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="14"/>
@@ -5124,7 +5140,7 @@
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
     </row>
-    <row r="123" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="14"/>
@@ -5155,7 +5171,7 @@
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="14"/>
@@ -5186,7 +5202,7 @@
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="14"/>
@@ -5217,7 +5233,7 @@
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="14"/>
@@ -5248,7 +5264,7 @@
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
     </row>
-    <row r="127" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="14"/>
@@ -5279,7 +5295,7 @@
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
     </row>
-    <row r="128" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="14"/>
@@ -5310,7 +5326,7 @@
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
     </row>
-    <row r="129" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="14"/>
@@ -5341,7 +5357,7 @@
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
     </row>
-    <row r="130" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="14"/>
@@ -5372,7 +5388,7 @@
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
     </row>
-    <row r="131" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="14"/>
@@ -5403,7 +5419,7 @@
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
     </row>
-    <row r="132" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="14"/>
@@ -5434,7 +5450,7 @@
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
     </row>
-    <row r="133" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="14"/>
@@ -5465,7 +5481,7 @@
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="14"/>
@@ -5496,7 +5512,7 @@
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
     </row>
-    <row r="135" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="14"/>
@@ -5527,7 +5543,7 @@
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
     </row>
-    <row r="136" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="14"/>
@@ -5558,7 +5574,7 @@
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
     </row>
-    <row r="137" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="14"/>
@@ -5589,7 +5605,7 @@
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
     </row>
-    <row r="138" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="14"/>
@@ -5620,7 +5636,7 @@
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
     </row>
-    <row r="139" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="14"/>
@@ -5651,7 +5667,7 @@
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
     </row>
-    <row r="140" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="14"/>
@@ -5682,7 +5698,7 @@
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
     </row>
-    <row r="141" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="14"/>
@@ -5713,7 +5729,7 @@
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
     </row>
-    <row r="142" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="14"/>
@@ -5744,7 +5760,7 @@
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
     </row>
-    <row r="143" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="14"/>
@@ -5775,7 +5791,7 @@
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
     </row>
-    <row r="144" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="14"/>
@@ -5806,7 +5822,7 @@
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
     </row>
-    <row r="145" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="14"/>
@@ -5837,7 +5853,7 @@
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
     </row>
-    <row r="146" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="14"/>
@@ -5868,7 +5884,7 @@
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
     </row>
-    <row r="147" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="14"/>
@@ -5899,7 +5915,7 @@
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
     </row>
-    <row r="148" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="14"/>
@@ -5930,7 +5946,7 @@
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
     </row>
-    <row r="149" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="14"/>
@@ -5961,7 +5977,7 @@
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
     </row>
-    <row r="150" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="14"/>
@@ -5992,7 +6008,7 @@
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
     </row>
-    <row r="151" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="14"/>
@@ -6023,7 +6039,7 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
     </row>
-    <row r="152" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="14"/>
@@ -6054,7 +6070,7 @@
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
     </row>
-    <row r="153" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="14"/>
@@ -6085,7 +6101,7 @@
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
     </row>
-    <row r="154" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="14"/>
@@ -6116,7 +6132,7 @@
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
     </row>
-    <row r="155" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="14"/>
@@ -6147,7 +6163,7 @@
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
     </row>
-    <row r="156" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="14"/>
@@ -6178,7 +6194,7 @@
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
     </row>
-    <row r="157" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="14"/>
@@ -6209,7 +6225,7 @@
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
     </row>
-    <row r="158" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="14"/>
@@ -6240,7 +6256,7 @@
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
     </row>
-    <row r="159" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="14"/>
@@ -6271,7 +6287,7 @@
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
     </row>
-    <row r="160" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="14"/>
@@ -6302,7 +6318,7 @@
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
     </row>
-    <row r="161" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="14"/>
@@ -6333,7 +6349,7 @@
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
     </row>
-    <row r="162" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="14"/>
@@ -6364,7 +6380,7 @@
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
     </row>
-    <row r="163" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="14"/>
@@ -6395,7 +6411,7 @@
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
     </row>
-    <row r="164" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="14"/>
@@ -6426,7 +6442,7 @@
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
     </row>
-    <row r="165" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="14"/>
@@ -6457,7 +6473,7 @@
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
     </row>
-    <row r="166" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="14"/>
@@ -6488,7 +6504,7 @@
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
     </row>
-    <row r="167" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="14"/>
@@ -6519,7 +6535,7 @@
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
     </row>
-    <row r="168" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="14"/>
@@ -6550,7 +6566,7 @@
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
     </row>
-    <row r="169" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="14"/>
@@ -6581,7 +6597,7 @@
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
     </row>
-    <row r="170" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="14"/>
@@ -6612,7 +6628,7 @@
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
     </row>
-    <row r="171" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="14"/>
@@ -6643,7 +6659,7 @@
       <c r="AB171" s="1"/>
       <c r="AC171" s="1"/>
     </row>
-    <row r="172" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="14"/>
@@ -6674,7 +6690,7 @@
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
     </row>
-    <row r="173" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="14"/>
@@ -6705,7 +6721,7 @@
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
     </row>
-    <row r="174" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="14"/>
@@ -6736,7 +6752,7 @@
       <c r="AB174" s="1"/>
       <c r="AC174" s="1"/>
     </row>
-    <row r="175" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="14"/>
@@ -6767,7 +6783,7 @@
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
     </row>
-    <row r="176" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="14"/>
@@ -6798,7 +6814,7 @@
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
     </row>
-    <row r="177" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="14"/>
@@ -6829,7 +6845,7 @@
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
     </row>
-    <row r="178" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="14"/>
@@ -6860,7 +6876,7 @@
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
     </row>
-    <row r="179" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="14"/>
@@ -6891,7 +6907,7 @@
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
     </row>
-    <row r="180" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="14"/>
@@ -6922,7 +6938,7 @@
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
     </row>
-    <row r="181" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="14"/>
@@ -6953,7 +6969,7 @@
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
     </row>
-    <row r="182" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="14"/>
@@ -6984,7 +7000,7 @@
       <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
     </row>
-    <row r="183" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="14"/>
@@ -7015,7 +7031,7 @@
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
     </row>
-    <row r="184" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="14"/>
@@ -7046,7 +7062,7 @@
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
     </row>
-    <row r="185" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="14"/>
@@ -7077,7 +7093,7 @@
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
     </row>
-    <row r="186" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="14"/>
@@ -7108,7 +7124,7 @@
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
     </row>
-    <row r="187" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="14"/>
@@ -7139,7 +7155,7 @@
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
     </row>
-    <row r="188" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="14"/>
@@ -7170,7 +7186,7 @@
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
     </row>
-    <row r="189" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="14"/>
@@ -7201,7 +7217,7 @@
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
     </row>
-    <row r="190" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="14"/>
@@ -7232,7 +7248,7 @@
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
     </row>
-    <row r="191" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="14"/>
@@ -7263,7 +7279,7 @@
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
     </row>
-    <row r="192" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="14"/>
@@ -7294,7 +7310,7 @@
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
     </row>
-    <row r="193" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="14"/>
@@ -7325,7 +7341,7 @@
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
     </row>
-    <row r="194" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="14"/>
@@ -7356,7 +7372,7 @@
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
     </row>
-    <row r="195" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="14"/>
@@ -7387,7 +7403,7 @@
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
     </row>
-    <row r="196" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="14"/>
@@ -7418,7 +7434,7 @@
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
     </row>
-    <row r="197" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="14"/>
@@ -7449,7 +7465,7 @@
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
     </row>
-    <row r="198" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="14"/>
@@ -7480,7 +7496,7 @@
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
     </row>
-    <row r="199" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="14"/>
@@ -7511,7 +7527,7 @@
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
     </row>
-    <row r="200" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="14"/>
@@ -7542,7 +7558,7 @@
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
     </row>
-    <row r="201" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="14"/>
@@ -7573,7 +7589,7 @@
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
     </row>
-    <row r="202" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="14"/>
@@ -7604,7 +7620,7 @@
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
     </row>
-    <row r="203" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="14"/>
@@ -7635,7 +7651,7 @@
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
     </row>
-    <row r="204" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="14"/>
@@ -7666,7 +7682,7 @@
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
     </row>
-    <row r="205" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="14"/>
@@ -7697,7 +7713,7 @@
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
     </row>
-    <row r="206" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="14"/>
@@ -7728,7 +7744,7 @@
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
     </row>
-    <row r="207" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="14"/>
@@ -7759,7 +7775,7 @@
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
     </row>
-    <row r="208" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="14"/>
@@ -7790,7 +7806,7 @@
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
     </row>
-    <row r="209" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="14"/>
@@ -7821,7 +7837,7 @@
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
     </row>
-    <row r="210" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="14"/>
@@ -7852,7 +7868,7 @@
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
     </row>
-    <row r="211" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="14"/>
@@ -7883,7 +7899,7 @@
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
     </row>
-    <row r="212" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="14"/>
@@ -7914,7 +7930,7 @@
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
     </row>
-    <row r="213" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="14"/>
@@ -7945,7 +7961,7 @@
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
     </row>
-    <row r="214" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="14"/>
@@ -7976,7 +7992,7 @@
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
     </row>
-    <row r="215" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="14"/>
@@ -8007,7 +8023,7 @@
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
     </row>
-    <row r="216" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="14"/>
@@ -8038,7 +8054,7 @@
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
     </row>
-    <row r="217" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="14"/>
@@ -8069,7 +8085,7 @@
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
     </row>
-    <row r="218" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="14"/>
@@ -8100,7 +8116,7 @@
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
     </row>
-    <row r="219" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="14"/>
@@ -8131,7 +8147,7 @@
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
     </row>
-    <row r="220" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="14"/>
@@ -8162,7 +8178,7 @@
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
     </row>
-    <row r="221" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="14"/>
@@ -8193,7 +8209,7 @@
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
     </row>
-    <row r="222" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="14"/>
@@ -8224,7 +8240,7 @@
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
     </row>
-    <row r="223" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="14"/>
@@ -8255,7 +8271,7 @@
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
     </row>
-    <row r="224" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="14"/>
@@ -8286,7 +8302,7 @@
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
     </row>
-    <row r="225" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="14"/>
@@ -8317,7 +8333,7 @@
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
     </row>
-    <row r="226" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="14"/>
@@ -8348,7 +8364,7 @@
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
     </row>
-    <row r="227" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="14"/>
@@ -8379,7 +8395,7 @@
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
     </row>
-    <row r="228" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="14"/>
@@ -8410,7 +8426,7 @@
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
     </row>
-    <row r="229" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="14"/>
@@ -8441,7 +8457,7 @@
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
     </row>
-    <row r="230" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="14"/>
@@ -8472,7 +8488,7 @@
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
     </row>
-    <row r="231" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="14"/>
@@ -8503,7 +8519,7 @@
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
     </row>
-    <row r="232" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="14"/>
@@ -8534,7 +8550,7 @@
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
     </row>
-    <row r="233" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="14"/>
@@ -8565,7 +8581,7 @@
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
     </row>
-    <row r="234" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="14"/>
@@ -8596,7 +8612,7 @@
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
     </row>
-    <row r="235" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="14"/>
@@ -8627,7 +8643,7 @@
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
     </row>
-    <row r="236" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="14"/>
@@ -8658,7 +8674,7 @@
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
     </row>
-    <row r="237" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="14"/>
@@ -8689,7 +8705,7 @@
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
     </row>
-    <row r="238" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="14"/>
@@ -8720,7 +8736,7 @@
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
     </row>
-    <row r="239" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="14"/>
@@ -8751,7 +8767,7 @@
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
     </row>
-    <row r="240" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="14"/>
@@ -8782,7 +8798,7 @@
       <c r="AB240" s="1"/>
       <c r="AC240" s="1"/>
     </row>
-    <row r="241" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="14"/>
@@ -8813,7 +8829,7 @@
       <c r="AB241" s="1"/>
       <c r="AC241" s="1"/>
     </row>
-    <row r="242" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="14"/>
@@ -8844,7 +8860,7 @@
       <c r="AB242" s="1"/>
       <c r="AC242" s="1"/>
     </row>
-    <row r="243" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="14"/>
@@ -8875,7 +8891,7 @@
       <c r="AB243" s="1"/>
       <c r="AC243" s="1"/>
     </row>
-    <row r="244" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="14"/>
@@ -8906,7 +8922,7 @@
       <c r="AB244" s="1"/>
       <c r="AC244" s="1"/>
     </row>
-    <row r="245" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="14"/>
@@ -8937,7 +8953,7 @@
       <c r="AB245" s="1"/>
       <c r="AC245" s="1"/>
     </row>
-    <row r="246" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="14"/>
@@ -8968,7 +8984,7 @@
       <c r="AB246" s="1"/>
       <c r="AC246" s="1"/>
     </row>
-    <row r="247" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="14"/>
@@ -8999,7 +9015,7 @@
       <c r="AB247" s="1"/>
       <c r="AC247" s="1"/>
     </row>
-    <row r="248" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="14"/>
@@ -9030,7 +9046,7 @@
       <c r="AB248" s="1"/>
       <c r="AC248" s="1"/>
     </row>
-    <row r="249" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="14"/>
@@ -9061,7 +9077,7 @@
       <c r="AB249" s="1"/>
       <c r="AC249" s="1"/>
     </row>
-    <row r="250" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="14"/>
@@ -9092,7 +9108,7 @@
       <c r="AB250" s="1"/>
       <c r="AC250" s="1"/>
     </row>
-    <row r="251" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="14"/>
@@ -9123,7 +9139,7 @@
       <c r="AB251" s="1"/>
       <c r="AC251" s="1"/>
     </row>
-    <row r="252" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="14"/>
@@ -9154,7 +9170,7 @@
       <c r="AB252" s="1"/>
       <c r="AC252" s="1"/>
     </row>
-    <row r="253" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="14"/>
@@ -9185,7 +9201,7 @@
       <c r="AB253" s="1"/>
       <c r="AC253" s="1"/>
     </row>
-    <row r="254" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="14"/>
@@ -9216,7 +9232,7 @@
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
     </row>
-    <row r="255" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="14"/>
@@ -9247,7 +9263,7 @@
       <c r="AB255" s="1"/>
       <c r="AC255" s="1"/>
     </row>
-    <row r="256" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="14"/>
@@ -9278,7 +9294,7 @@
       <c r="AB256" s="1"/>
       <c r="AC256" s="1"/>
     </row>
-    <row r="257" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="14"/>
@@ -9309,7 +9325,7 @@
       <c r="AB257" s="1"/>
       <c r="AC257" s="1"/>
     </row>
-    <row r="258" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="14"/>
@@ -9340,7 +9356,7 @@
       <c r="AB258" s="1"/>
       <c r="AC258" s="1"/>
     </row>
-    <row r="259" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="14"/>
@@ -9371,7 +9387,7 @@
       <c r="AB259" s="1"/>
       <c r="AC259" s="1"/>
     </row>
-    <row r="260" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="14"/>
@@ -9402,7 +9418,7 @@
       <c r="AB260" s="1"/>
       <c r="AC260" s="1"/>
     </row>
-    <row r="261" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="14"/>
@@ -9433,7 +9449,7 @@
       <c r="AB261" s="1"/>
       <c r="AC261" s="1"/>
     </row>
-    <row r="262" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="14"/>
@@ -9464,7 +9480,7 @@
       <c r="AB262" s="1"/>
       <c r="AC262" s="1"/>
     </row>
-    <row r="263" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="14"/>
@@ -9495,7 +9511,7 @@
       <c r="AB263" s="1"/>
       <c r="AC263" s="1"/>
     </row>
-    <row r="264" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="14"/>
@@ -9526,7 +9542,7 @@
       <c r="AB264" s="1"/>
       <c r="AC264" s="1"/>
     </row>
-    <row r="265" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="14"/>
@@ -9557,7 +9573,7 @@
       <c r="AB265" s="1"/>
       <c r="AC265" s="1"/>
     </row>
-    <row r="266" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="14"/>
@@ -9588,7 +9604,7 @@
       <c r="AB266" s="1"/>
       <c r="AC266" s="1"/>
     </row>
-    <row r="267" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="14"/>
@@ -9619,7 +9635,7 @@
       <c r="AB267" s="1"/>
       <c r="AC267" s="1"/>
     </row>
-    <row r="268" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="14"/>
@@ -9650,7 +9666,7 @@
       <c r="AB268" s="1"/>
       <c r="AC268" s="1"/>
     </row>
-    <row r="269" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="14"/>
@@ -9681,7 +9697,7 @@
       <c r="AB269" s="1"/>
       <c r="AC269" s="1"/>
     </row>
-    <row r="270" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="14"/>
@@ -9712,7 +9728,7 @@
       <c r="AB270" s="1"/>
       <c r="AC270" s="1"/>
     </row>
-    <row r="271" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="14"/>
@@ -9743,7 +9759,7 @@
       <c r="AB271" s="1"/>
       <c r="AC271" s="1"/>
     </row>
-    <row r="272" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="14"/>
@@ -9774,7 +9790,7 @@
       <c r="AB272" s="1"/>
       <c r="AC272" s="1"/>
     </row>
-    <row r="273" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="14"/>
@@ -9805,7 +9821,7 @@
       <c r="AB273" s="1"/>
       <c r="AC273" s="1"/>
     </row>
-    <row r="274" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="14"/>
@@ -9836,7 +9852,7 @@
       <c r="AB274" s="1"/>
       <c r="AC274" s="1"/>
     </row>
-    <row r="275" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="14"/>
@@ -9867,7 +9883,7 @@
       <c r="AB275" s="1"/>
       <c r="AC275" s="1"/>
     </row>
-    <row r="276" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="14"/>
@@ -9898,7 +9914,7 @@
       <c r="AB276" s="1"/>
       <c r="AC276" s="1"/>
     </row>
-    <row r="277" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="14"/>
@@ -9929,7 +9945,7 @@
       <c r="AB277" s="1"/>
       <c r="AC277" s="1"/>
     </row>
-    <row r="278" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="14"/>
@@ -9960,7 +9976,7 @@
       <c r="AB278" s="1"/>
       <c r="AC278" s="1"/>
     </row>
-    <row r="279" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="14"/>
@@ -9991,7 +10007,7 @@
       <c r="AB279" s="1"/>
       <c r="AC279" s="1"/>
     </row>
-    <row r="280" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="14"/>
@@ -10022,7 +10038,7 @@
       <c r="AB280" s="1"/>
       <c r="AC280" s="1"/>
     </row>
-    <row r="281" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="14"/>
@@ -10053,7 +10069,7 @@
       <c r="AB281" s="1"/>
       <c r="AC281" s="1"/>
     </row>
-    <row r="282" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="14"/>
@@ -10084,7 +10100,7 @@
       <c r="AB282" s="1"/>
       <c r="AC282" s="1"/>
     </row>
-    <row r="283" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="14"/>
@@ -10115,7 +10131,7 @@
       <c r="AB283" s="1"/>
       <c r="AC283" s="1"/>
     </row>
-    <row r="284" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="14"/>
@@ -10146,7 +10162,7 @@
       <c r="AB284" s="1"/>
       <c r="AC284" s="1"/>
     </row>
-    <row r="285" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="14"/>
@@ -10177,7 +10193,7 @@
       <c r="AB285" s="1"/>
       <c r="AC285" s="1"/>
     </row>
-    <row r="286" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="14"/>
@@ -10208,7 +10224,7 @@
       <c r="AB286" s="1"/>
       <c r="AC286" s="1"/>
     </row>
-    <row r="287" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="14"/>
@@ -10239,7 +10255,7 @@
       <c r="AB287" s="1"/>
       <c r="AC287" s="1"/>
     </row>
-    <row r="288" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="14"/>
@@ -10270,7 +10286,7 @@
       <c r="AB288" s="1"/>
       <c r="AC288" s="1"/>
     </row>
-    <row r="289" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="14"/>
@@ -10301,7 +10317,7 @@
       <c r="AB289" s="1"/>
       <c r="AC289" s="1"/>
     </row>
-    <row r="290" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="14"/>
@@ -10332,7 +10348,7 @@
       <c r="AB290" s="1"/>
       <c r="AC290" s="1"/>
     </row>
-    <row r="291" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="14"/>
@@ -10363,7 +10379,7 @@
       <c r="AB291" s="1"/>
       <c r="AC291" s="1"/>
     </row>
-    <row r="292" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="14"/>
@@ -10394,7 +10410,7 @@
       <c r="AB292" s="1"/>
       <c r="AC292" s="1"/>
     </row>
-    <row r="293" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="14"/>
@@ -10425,7 +10441,7 @@
       <c r="AB293" s="1"/>
       <c r="AC293" s="1"/>
     </row>
-    <row r="294" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="14"/>
@@ -10456,7 +10472,7 @@
       <c r="AB294" s="1"/>
       <c r="AC294" s="1"/>
     </row>
-    <row r="295" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="14"/>
@@ -10487,7 +10503,7 @@
       <c r="AB295" s="1"/>
       <c r="AC295" s="1"/>
     </row>
-    <row r="296" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="14"/>
@@ -10518,7 +10534,7 @@
       <c r="AB296" s="1"/>
       <c r="AC296" s="1"/>
     </row>
-    <row r="297" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="14"/>
@@ -10549,7 +10565,7 @@
       <c r="AB297" s="1"/>
       <c r="AC297" s="1"/>
     </row>
-    <row r="298" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="14"/>
@@ -10580,7 +10596,7 @@
       <c r="AB298" s="1"/>
       <c r="AC298" s="1"/>
     </row>
-    <row r="299" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="14"/>
@@ -10611,7 +10627,7 @@
       <c r="AB299" s="1"/>
       <c r="AC299" s="1"/>
     </row>
-    <row r="300" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="14"/>
@@ -10642,7 +10658,7 @@
       <c r="AB300" s="1"/>
       <c r="AC300" s="1"/>
     </row>
-    <row r="301" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="14"/>
@@ -10673,7 +10689,7 @@
       <c r="AB301" s="1"/>
       <c r="AC301" s="1"/>
     </row>
-    <row r="302" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="14"/>
@@ -10704,7 +10720,7 @@
       <c r="AB302" s="1"/>
       <c r="AC302" s="1"/>
     </row>
-    <row r="303" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="14"/>
@@ -10735,7 +10751,7 @@
       <c r="AB303" s="1"/>
       <c r="AC303" s="1"/>
     </row>
-    <row r="304" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="14"/>
@@ -10766,7 +10782,7 @@
       <c r="AB304" s="1"/>
       <c r="AC304" s="1"/>
     </row>
-    <row r="305" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="14"/>
@@ -10797,7 +10813,7 @@
       <c r="AB305" s="1"/>
       <c r="AC305" s="1"/>
     </row>
-    <row r="306" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="14"/>
@@ -10828,7 +10844,7 @@
       <c r="AB306" s="1"/>
       <c r="AC306" s="1"/>
     </row>
-    <row r="307" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="14"/>
@@ -10859,7 +10875,7 @@
       <c r="AB307" s="1"/>
       <c r="AC307" s="1"/>
     </row>
-    <row r="308" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="14"/>
@@ -10890,7 +10906,7 @@
       <c r="AB308" s="1"/>
       <c r="AC308" s="1"/>
     </row>
-    <row r="309" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="14"/>
@@ -10921,7 +10937,7 @@
       <c r="AB309" s="1"/>
       <c r="AC309" s="1"/>
     </row>
-    <row r="310" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="14"/>
@@ -10952,7 +10968,7 @@
       <c r="AB310" s="1"/>
       <c r="AC310" s="1"/>
     </row>
-    <row r="311" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="14"/>
@@ -10983,7 +10999,7 @@
       <c r="AB311" s="1"/>
       <c r="AC311" s="1"/>
     </row>
-    <row r="312" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="14"/>
@@ -11014,7 +11030,7 @@
       <c r="AB312" s="1"/>
       <c r="AC312" s="1"/>
     </row>
-    <row r="313" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="14"/>
@@ -11045,7 +11061,7 @@
       <c r="AB313" s="1"/>
       <c r="AC313" s="1"/>
     </row>
-    <row r="314" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="14"/>
@@ -11076,7 +11092,7 @@
       <c r="AB314" s="1"/>
       <c r="AC314" s="1"/>
     </row>
-    <row r="315" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="14"/>
@@ -11107,7 +11123,7 @@
       <c r="AB315" s="1"/>
       <c r="AC315" s="1"/>
     </row>
-    <row r="316" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="14"/>
@@ -11138,7 +11154,7 @@
       <c r="AB316" s="1"/>
       <c r="AC316" s="1"/>
     </row>
-    <row r="317" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="14"/>
@@ -11169,7 +11185,7 @@
       <c r="AB317" s="1"/>
       <c r="AC317" s="1"/>
     </row>
-    <row r="318" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="14"/>
@@ -11200,7 +11216,7 @@
       <c r="AB318" s="1"/>
       <c r="AC318" s="1"/>
     </row>
-    <row r="319" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="14"/>
@@ -11231,7 +11247,7 @@
       <c r="AB319" s="1"/>
       <c r="AC319" s="1"/>
     </row>
-    <row r="320" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="14"/>
@@ -11262,7 +11278,7 @@
       <c r="AB320" s="1"/>
       <c r="AC320" s="1"/>
     </row>
-    <row r="321" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="14"/>
@@ -11293,7 +11309,7 @@
       <c r="AB321" s="1"/>
       <c r="AC321" s="1"/>
     </row>
-    <row r="322" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="14"/>
@@ -11324,7 +11340,7 @@
       <c r="AB322" s="1"/>
       <c r="AC322" s="1"/>
     </row>
-    <row r="323" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="14"/>
@@ -11355,7 +11371,7 @@
       <c r="AB323" s="1"/>
       <c r="AC323" s="1"/>
     </row>
-    <row r="324" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="14"/>
@@ -11386,7 +11402,7 @@
       <c r="AB324" s="1"/>
       <c r="AC324" s="1"/>
     </row>
-    <row r="325" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="14"/>
@@ -11417,7 +11433,7 @@
       <c r="AB325" s="1"/>
       <c r="AC325" s="1"/>
     </row>
-    <row r="326" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="14"/>
@@ -11448,7 +11464,7 @@
       <c r="AB326" s="1"/>
       <c r="AC326" s="1"/>
     </row>
-    <row r="327" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="14"/>
@@ -11479,7 +11495,7 @@
       <c r="AB327" s="1"/>
       <c r="AC327" s="1"/>
     </row>
-    <row r="328" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="14"/>
@@ -11510,7 +11526,7 @@
       <c r="AB328" s="1"/>
       <c r="AC328" s="1"/>
     </row>
-    <row r="329" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="14"/>
@@ -11541,7 +11557,7 @@
       <c r="AB329" s="1"/>
       <c r="AC329" s="1"/>
     </row>
-    <row r="330" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="14"/>
@@ -11572,7 +11588,7 @@
       <c r="AB330" s="1"/>
       <c r="AC330" s="1"/>
     </row>
-    <row r="331" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="14"/>
@@ -11603,7 +11619,7 @@
       <c r="AB331" s="1"/>
       <c r="AC331" s="1"/>
     </row>
-    <row r="332" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="14"/>
@@ -11634,7 +11650,7 @@
       <c r="AB332" s="1"/>
       <c r="AC332" s="1"/>
     </row>
-    <row r="333" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="14"/>
@@ -11665,7 +11681,7 @@
       <c r="AB333" s="1"/>
       <c r="AC333" s="1"/>
     </row>
-    <row r="334" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="14"/>
@@ -11696,7 +11712,7 @@
       <c r="AB334" s="1"/>
       <c r="AC334" s="1"/>
     </row>
-    <row r="335" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="14"/>
@@ -11727,7 +11743,7 @@
       <c r="AB335" s="1"/>
       <c r="AC335" s="1"/>
     </row>
-    <row r="336" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="14"/>
@@ -11758,7 +11774,7 @@
       <c r="AB336" s="1"/>
       <c r="AC336" s="1"/>
     </row>
-    <row r="337" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="14"/>
@@ -11789,7 +11805,7 @@
       <c r="AB337" s="1"/>
       <c r="AC337" s="1"/>
     </row>
-    <row r="338" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="14"/>
@@ -11820,7 +11836,7 @@
       <c r="AB338" s="1"/>
       <c r="AC338" s="1"/>
     </row>
-    <row r="339" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="14"/>
@@ -11851,7 +11867,7 @@
       <c r="AB339" s="1"/>
       <c r="AC339" s="1"/>
     </row>
-    <row r="340" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="14"/>
@@ -11882,7 +11898,7 @@
       <c r="AB340" s="1"/>
       <c r="AC340" s="1"/>
     </row>
-    <row r="341" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="14"/>
@@ -11913,7 +11929,7 @@
       <c r="AB341" s="1"/>
       <c r="AC341" s="1"/>
     </row>
-    <row r="342" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="14"/>
@@ -11944,7 +11960,7 @@
       <c r="AB342" s="1"/>
       <c r="AC342" s="1"/>
     </row>
-    <row r="343" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="14"/>
@@ -11975,7 +11991,7 @@
       <c r="AB343" s="1"/>
       <c r="AC343" s="1"/>
     </row>
-    <row r="344" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="14"/>
@@ -12006,7 +12022,7 @@
       <c r="AB344" s="1"/>
       <c r="AC344" s="1"/>
     </row>
-    <row r="345" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="14"/>
@@ -12037,7 +12053,7 @@
       <c r="AB345" s="1"/>
       <c r="AC345" s="1"/>
     </row>
-    <row r="346" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="14"/>
@@ -12068,7 +12084,7 @@
       <c r="AB346" s="1"/>
       <c r="AC346" s="1"/>
     </row>
-    <row r="347" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="14"/>
@@ -12099,7 +12115,7 @@
       <c r="AB347" s="1"/>
       <c r="AC347" s="1"/>
     </row>
-    <row r="348" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="14"/>
@@ -12130,7 +12146,7 @@
       <c r="AB348" s="1"/>
       <c r="AC348" s="1"/>
     </row>
-    <row r="349" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="14"/>
@@ -12161,7 +12177,7 @@
       <c r="AB349" s="1"/>
       <c r="AC349" s="1"/>
     </row>
-    <row r="350" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="14"/>
@@ -12192,7 +12208,7 @@
       <c r="AB350" s="1"/>
       <c r="AC350" s="1"/>
     </row>
-    <row r="351" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="14"/>
@@ -12223,7 +12239,7 @@
       <c r="AB351" s="1"/>
       <c r="AC351" s="1"/>
     </row>
-    <row r="352" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="14"/>
@@ -12254,7 +12270,7 @@
       <c r="AB352" s="1"/>
       <c r="AC352" s="1"/>
     </row>
-    <row r="353" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="14"/>
@@ -12285,7 +12301,7 @@
       <c r="AB353" s="1"/>
       <c r="AC353" s="1"/>
     </row>
-    <row r="354" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="14"/>
@@ -12316,7 +12332,7 @@
       <c r="AB354" s="1"/>
       <c r="AC354" s="1"/>
     </row>
-    <row r="355" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="14"/>
@@ -12347,7 +12363,7 @@
       <c r="AB355" s="1"/>
       <c r="AC355" s="1"/>
     </row>
-    <row r="356" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="14"/>
@@ -12378,7 +12394,7 @@
       <c r="AB356" s="1"/>
       <c r="AC356" s="1"/>
     </row>
-    <row r="357" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="14"/>
@@ -12409,7 +12425,7 @@
       <c r="AB357" s="1"/>
       <c r="AC357" s="1"/>
     </row>
-    <row r="358" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="14"/>
@@ -12440,7 +12456,7 @@
       <c r="AB358" s="1"/>
       <c r="AC358" s="1"/>
     </row>
-    <row r="359" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="14"/>
@@ -12471,7 +12487,7 @@
       <c r="AB359" s="1"/>
       <c r="AC359" s="1"/>
     </row>
-    <row r="360" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="14"/>
@@ -12502,7 +12518,7 @@
       <c r="AB360" s="1"/>
       <c r="AC360" s="1"/>
     </row>
-    <row r="361" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="14"/>
@@ -12533,7 +12549,7 @@
       <c r="AB361" s="1"/>
       <c r="AC361" s="1"/>
     </row>
-    <row r="362" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="14"/>
@@ -12564,7 +12580,7 @@
       <c r="AB362" s="1"/>
       <c r="AC362" s="1"/>
     </row>
-    <row r="363" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="14"/>
@@ -12595,7 +12611,7 @@
       <c r="AB363" s="1"/>
       <c r="AC363" s="1"/>
     </row>
-    <row r="364" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="14"/>
@@ -12626,7 +12642,7 @@
       <c r="AB364" s="1"/>
       <c r="AC364" s="1"/>
     </row>
-    <row r="365" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="14"/>
@@ -12657,7 +12673,7 @@
       <c r="AB365" s="1"/>
       <c r="AC365" s="1"/>
     </row>
-    <row r="366" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="14"/>
@@ -12688,7 +12704,7 @@
       <c r="AB366" s="1"/>
       <c r="AC366" s="1"/>
     </row>
-    <row r="367" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="14"/>
@@ -12719,7 +12735,7 @@
       <c r="AB367" s="1"/>
       <c r="AC367" s="1"/>
     </row>
-    <row r="368" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="14"/>
@@ -12750,7 +12766,7 @@
       <c r="AB368" s="1"/>
       <c r="AC368" s="1"/>
     </row>
-    <row r="369" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="14"/>
@@ -12781,7 +12797,7 @@
       <c r="AB369" s="1"/>
       <c r="AC369" s="1"/>
     </row>
-    <row r="370" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="14"/>
@@ -12812,7 +12828,7 @@
       <c r="AB370" s="1"/>
       <c r="AC370" s="1"/>
     </row>
-    <row r="371" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="14"/>
@@ -12843,7 +12859,7 @@
       <c r="AB371" s="1"/>
       <c r="AC371" s="1"/>
     </row>
-    <row r="372" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="14"/>
@@ -12874,7 +12890,7 @@
       <c r="AB372" s="1"/>
       <c r="AC372" s="1"/>
     </row>
-    <row r="373" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="14"/>
@@ -12905,7 +12921,7 @@
       <c r="AB373" s="1"/>
       <c r="AC373" s="1"/>
     </row>
-    <row r="374" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="14"/>
@@ -12936,7 +12952,7 @@
       <c r="AB374" s="1"/>
       <c r="AC374" s="1"/>
     </row>
-    <row r="375" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="14"/>
@@ -12967,7 +12983,7 @@
       <c r="AB375" s="1"/>
       <c r="AC375" s="1"/>
     </row>
-    <row r="376" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="14"/>
@@ -12998,7 +13014,7 @@
       <c r="AB376" s="1"/>
       <c r="AC376" s="1"/>
     </row>
-    <row r="377" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="14"/>
@@ -13029,7 +13045,7 @@
       <c r="AB377" s="1"/>
       <c r="AC377" s="1"/>
     </row>
-    <row r="378" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="14"/>
@@ -13060,7 +13076,7 @@
       <c r="AB378" s="1"/>
       <c r="AC378" s="1"/>
     </row>
-    <row r="379" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="14"/>
@@ -13091,7 +13107,7 @@
       <c r="AB379" s="1"/>
       <c r="AC379" s="1"/>
     </row>
-    <row r="380" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="14"/>
@@ -13122,7 +13138,7 @@
       <c r="AB380" s="1"/>
       <c r="AC380" s="1"/>
     </row>
-    <row r="381" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="14"/>
@@ -13153,7 +13169,7 @@
       <c r="AB381" s="1"/>
       <c r="AC381" s="1"/>
     </row>
-    <row r="382" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="14"/>
@@ -13184,7 +13200,7 @@
       <c r="AB382" s="1"/>
       <c r="AC382" s="1"/>
     </row>
-    <row r="383" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="14"/>
@@ -13215,7 +13231,7 @@
       <c r="AB383" s="1"/>
       <c r="AC383" s="1"/>
     </row>
-    <row r="384" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="14"/>
@@ -13246,7 +13262,7 @@
       <c r="AB384" s="1"/>
       <c r="AC384" s="1"/>
     </row>
-    <row r="385" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="14"/>
@@ -13277,7 +13293,7 @@
       <c r="AB385" s="1"/>
       <c r="AC385" s="1"/>
     </row>
-    <row r="386" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="14"/>
@@ -13308,7 +13324,7 @@
       <c r="AB386" s="1"/>
       <c r="AC386" s="1"/>
     </row>
-    <row r="387" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="14"/>
@@ -13339,7 +13355,7 @@
       <c r="AB387" s="1"/>
       <c r="AC387" s="1"/>
     </row>
-    <row r="388" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="14"/>
@@ -13370,7 +13386,7 @@
       <c r="AB388" s="1"/>
       <c r="AC388" s="1"/>
     </row>
-    <row r="389" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="14"/>
@@ -13401,7 +13417,7 @@
       <c r="AB389" s="1"/>
       <c r="AC389" s="1"/>
     </row>
-    <row r="390" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="14"/>
@@ -13432,7 +13448,7 @@
       <c r="AB390" s="1"/>
       <c r="AC390" s="1"/>
     </row>
-    <row r="391" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="14"/>
@@ -13463,7 +13479,7 @@
       <c r="AB391" s="1"/>
       <c r="AC391" s="1"/>
     </row>
-    <row r="392" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="14"/>
@@ -13494,7 +13510,7 @@
       <c r="AB392" s="1"/>
       <c r="AC392" s="1"/>
     </row>
-    <row r="393" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="14"/>
@@ -13525,7 +13541,7 @@
       <c r="AB393" s="1"/>
       <c r="AC393" s="1"/>
     </row>
-    <row r="394" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="14"/>
@@ -13556,7 +13572,7 @@
       <c r="AB394" s="1"/>
       <c r="AC394" s="1"/>
     </row>
-    <row r="395" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="14"/>
@@ -13587,7 +13603,7 @@
       <c r="AB395" s="1"/>
       <c r="AC395" s="1"/>
     </row>
-    <row r="396" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="14"/>
@@ -13618,7 +13634,7 @@
       <c r="AB396" s="1"/>
       <c r="AC396" s="1"/>
     </row>
-    <row r="397" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="14"/>
@@ -13649,7 +13665,7 @@
       <c r="AB397" s="1"/>
       <c r="AC397" s="1"/>
     </row>
-    <row r="398" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="14"/>
@@ -13680,7 +13696,7 @@
       <c r="AB398" s="1"/>
       <c r="AC398" s="1"/>
     </row>
-    <row r="399" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="14"/>
@@ -13711,7 +13727,7 @@
       <c r="AB399" s="1"/>
       <c r="AC399" s="1"/>
     </row>
-    <row r="400" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="14"/>
@@ -13742,7 +13758,7 @@
       <c r="AB400" s="1"/>
       <c r="AC400" s="1"/>
     </row>
-    <row r="401" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="14"/>
@@ -13773,7 +13789,7 @@
       <c r="AB401" s="1"/>
       <c r="AC401" s="1"/>
     </row>
-    <row r="402" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="14"/>
@@ -13804,7 +13820,7 @@
       <c r="AB402" s="1"/>
       <c r="AC402" s="1"/>
     </row>
-    <row r="403" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="14"/>
@@ -13835,7 +13851,7 @@
       <c r="AB403" s="1"/>
       <c r="AC403" s="1"/>
     </row>
-    <row r="404" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="14"/>
@@ -13866,7 +13882,7 @@
       <c r="AB404" s="1"/>
       <c r="AC404" s="1"/>
     </row>
-    <row r="405" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="14"/>
@@ -13897,7 +13913,7 @@
       <c r="AB405" s="1"/>
       <c r="AC405" s="1"/>
     </row>
-    <row r="406" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="14"/>
@@ -13928,7 +13944,7 @@
       <c r="AB406" s="1"/>
       <c r="AC406" s="1"/>
     </row>
-    <row r="407" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="14"/>
@@ -13959,7 +13975,7 @@
       <c r="AB407" s="1"/>
       <c r="AC407" s="1"/>
     </row>
-    <row r="408" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="14"/>
@@ -13990,7 +14006,7 @@
       <c r="AB408" s="1"/>
       <c r="AC408" s="1"/>
     </row>
-    <row r="409" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="14"/>
@@ -14021,7 +14037,7 @@
       <c r="AB409" s="1"/>
       <c r="AC409" s="1"/>
     </row>
-    <row r="410" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="14"/>
@@ -14052,7 +14068,7 @@
       <c r="AB410" s="1"/>
       <c r="AC410" s="1"/>
     </row>
-    <row r="411" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="14"/>
@@ -14083,7 +14099,7 @@
       <c r="AB411" s="1"/>
       <c r="AC411" s="1"/>
     </row>
-    <row r="412" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="14"/>
@@ -14114,7 +14130,7 @@
       <c r="AB412" s="1"/>
       <c r="AC412" s="1"/>
     </row>
-    <row r="413" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="14"/>
@@ -14145,7 +14161,7 @@
       <c r="AB413" s="1"/>
       <c r="AC413" s="1"/>
     </row>
-    <row r="414" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="14"/>
@@ -14176,7 +14192,7 @@
       <c r="AB414" s="1"/>
       <c r="AC414" s="1"/>
     </row>
-    <row r="415" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="14"/>
@@ -14207,7 +14223,7 @@
       <c r="AB415" s="1"/>
       <c r="AC415" s="1"/>
     </row>
-    <row r="416" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="14"/>
@@ -14238,7 +14254,7 @@
       <c r="AB416" s="1"/>
       <c r="AC416" s="1"/>
     </row>
-    <row r="417" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="14"/>
@@ -14269,7 +14285,7 @@
       <c r="AB417" s="1"/>
       <c r="AC417" s="1"/>
     </row>
-    <row r="418" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="14"/>
@@ -14300,7 +14316,7 @@
       <c r="AB418" s="1"/>
       <c r="AC418" s="1"/>
     </row>
-    <row r="419" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="14"/>
@@ -14331,7 +14347,7 @@
       <c r="AB419" s="1"/>
       <c r="AC419" s="1"/>
     </row>
-    <row r="420" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="14"/>
@@ -14362,7 +14378,7 @@
       <c r="AB420" s="1"/>
       <c r="AC420" s="1"/>
     </row>
-    <row r="421" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="14"/>
@@ -14393,7 +14409,7 @@
       <c r="AB421" s="1"/>
       <c r="AC421" s="1"/>
     </row>
-    <row r="422" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="14"/>
@@ -14424,7 +14440,7 @@
       <c r="AB422" s="1"/>
       <c r="AC422" s="1"/>
     </row>
-    <row r="423" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="14"/>
@@ -14455,7 +14471,7 @@
       <c r="AB423" s="1"/>
       <c r="AC423" s="1"/>
     </row>
-    <row r="424" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="14"/>
@@ -14486,7 +14502,7 @@
       <c r="AB424" s="1"/>
       <c r="AC424" s="1"/>
     </row>
-    <row r="425" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="14"/>
@@ -14517,7 +14533,7 @@
       <c r="AB425" s="1"/>
       <c r="AC425" s="1"/>
     </row>
-    <row r="426" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="14"/>
@@ -14548,7 +14564,7 @@
       <c r="AB426" s="1"/>
       <c r="AC426" s="1"/>
     </row>
-    <row r="427" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="14"/>
@@ -14579,7 +14595,7 @@
       <c r="AB427" s="1"/>
       <c r="AC427" s="1"/>
     </row>
-    <row r="428" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="14"/>
@@ -14610,7 +14626,7 @@
       <c r="AB428" s="1"/>
       <c r="AC428" s="1"/>
     </row>
-    <row r="429" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="14"/>
@@ -14641,7 +14657,7 @@
       <c r="AB429" s="1"/>
       <c r="AC429" s="1"/>
     </row>
-    <row r="430" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="14"/>
@@ -14672,7 +14688,7 @@
       <c r="AB430" s="1"/>
       <c r="AC430" s="1"/>
     </row>
-    <row r="431" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="14"/>
@@ -14703,7 +14719,7 @@
       <c r="AB431" s="1"/>
       <c r="AC431" s="1"/>
     </row>
-    <row r="432" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="14"/>
@@ -14734,7 +14750,7 @@
       <c r="AB432" s="1"/>
       <c r="AC432" s="1"/>
     </row>
-    <row r="433" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="14"/>
@@ -14765,7 +14781,7 @@
       <c r="AB433" s="1"/>
       <c r="AC433" s="1"/>
     </row>
-    <row r="434" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="14"/>
@@ -14796,7 +14812,7 @@
       <c r="AB434" s="1"/>
       <c r="AC434" s="1"/>
     </row>
-    <row r="435" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="14"/>
@@ -14827,7 +14843,7 @@
       <c r="AB435" s="1"/>
       <c r="AC435" s="1"/>
     </row>
-    <row r="436" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="14"/>
@@ -14858,7 +14874,7 @@
       <c r="AB436" s="1"/>
       <c r="AC436" s="1"/>
     </row>
-    <row r="437" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="14"/>
@@ -14889,7 +14905,7 @@
       <c r="AB437" s="1"/>
       <c r="AC437" s="1"/>
     </row>
-    <row r="438" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="14"/>
@@ -14920,7 +14936,7 @@
       <c r="AB438" s="1"/>
       <c r="AC438" s="1"/>
     </row>
-    <row r="439" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="14"/>
@@ -14951,7 +14967,7 @@
       <c r="AB439" s="1"/>
       <c r="AC439" s="1"/>
     </row>
-    <row r="440" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="14"/>
@@ -14982,7 +14998,7 @@
       <c r="AB440" s="1"/>
       <c r="AC440" s="1"/>
     </row>
-    <row r="441" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="14"/>
@@ -15013,7 +15029,7 @@
       <c r="AB441" s="1"/>
       <c r="AC441" s="1"/>
     </row>
-    <row r="442" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="14"/>
@@ -15044,7 +15060,7 @@
       <c r="AB442" s="1"/>
       <c r="AC442" s="1"/>
     </row>
-    <row r="443" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="14"/>
@@ -15075,7 +15091,7 @@
       <c r="AB443" s="1"/>
       <c r="AC443" s="1"/>
     </row>
-    <row r="444" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="14"/>
@@ -15106,7 +15122,7 @@
       <c r="AB444" s="1"/>
       <c r="AC444" s="1"/>
     </row>
-    <row r="445" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="14"/>
@@ -15137,7 +15153,7 @@
       <c r="AB445" s="1"/>
       <c r="AC445" s="1"/>
     </row>
-    <row r="446" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="14"/>
@@ -15168,7 +15184,7 @@
       <c r="AB446" s="1"/>
       <c r="AC446" s="1"/>
     </row>
-    <row r="447" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="14"/>
@@ -15199,7 +15215,7 @@
       <c r="AB447" s="1"/>
       <c r="AC447" s="1"/>
     </row>
-    <row r="448" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="14"/>
@@ -15230,7 +15246,7 @@
       <c r="AB448" s="1"/>
       <c r="AC448" s="1"/>
     </row>
-    <row r="449" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="14"/>
@@ -15261,7 +15277,7 @@
       <c r="AB449" s="1"/>
       <c r="AC449" s="1"/>
     </row>
-    <row r="450" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="14"/>
@@ -15292,7 +15308,7 @@
       <c r="AB450" s="1"/>
       <c r="AC450" s="1"/>
     </row>
-    <row r="451" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="14"/>
@@ -15323,7 +15339,7 @@
       <c r="AB451" s="1"/>
       <c r="AC451" s="1"/>
     </row>
-    <row r="452" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="14"/>
@@ -15354,7 +15370,7 @@
       <c r="AB452" s="1"/>
       <c r="AC452" s="1"/>
     </row>
-    <row r="453" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="14"/>
@@ -15385,7 +15401,7 @@
       <c r="AB453" s="1"/>
       <c r="AC453" s="1"/>
     </row>
-    <row r="454" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="14"/>
@@ -15416,7 +15432,7 @@
       <c r="AB454" s="1"/>
       <c r="AC454" s="1"/>
     </row>
-    <row r="455" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="14"/>
@@ -15447,7 +15463,7 @@
       <c r="AB455" s="1"/>
       <c r="AC455" s="1"/>
     </row>
-    <row r="456" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="14"/>
@@ -15478,7 +15494,7 @@
       <c r="AB456" s="1"/>
       <c r="AC456" s="1"/>
     </row>
-    <row r="457" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="14"/>
@@ -15509,7 +15525,7 @@
       <c r="AB457" s="1"/>
       <c r="AC457" s="1"/>
     </row>
-    <row r="458" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="14"/>
@@ -15540,7 +15556,7 @@
       <c r="AB458" s="1"/>
       <c r="AC458" s="1"/>
     </row>
-    <row r="459" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="14"/>
@@ -15571,7 +15587,7 @@
       <c r="AB459" s="1"/>
       <c r="AC459" s="1"/>
     </row>
-    <row r="460" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="14"/>
@@ -15602,7 +15618,7 @@
       <c r="AB460" s="1"/>
       <c r="AC460" s="1"/>
     </row>
-    <row r="461" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="14"/>
@@ -15633,7 +15649,7 @@
       <c r="AB461" s="1"/>
       <c r="AC461" s="1"/>
     </row>
-    <row r="462" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="14"/>
@@ -15664,7 +15680,7 @@
       <c r="AB462" s="1"/>
       <c r="AC462" s="1"/>
     </row>
-    <row r="463" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="14"/>
@@ -15695,7 +15711,7 @@
       <c r="AB463" s="1"/>
       <c r="AC463" s="1"/>
     </row>
-    <row r="464" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="14"/>
@@ -15726,7 +15742,7 @@
       <c r="AB464" s="1"/>
       <c r="AC464" s="1"/>
     </row>
-    <row r="465" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="14"/>
@@ -15757,7 +15773,7 @@
       <c r="AB465" s="1"/>
       <c r="AC465" s="1"/>
     </row>
-    <row r="466" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="14"/>
@@ -15788,7 +15804,7 @@
       <c r="AB466" s="1"/>
       <c r="AC466" s="1"/>
     </row>
-    <row r="467" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="14"/>
@@ -15819,7 +15835,7 @@
       <c r="AB467" s="1"/>
       <c r="AC467" s="1"/>
     </row>
-    <row r="468" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="14"/>
@@ -15850,7 +15866,7 @@
       <c r="AB468" s="1"/>
       <c r="AC468" s="1"/>
     </row>
-    <row r="469" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="14"/>
@@ -15881,7 +15897,7 @@
       <c r="AB469" s="1"/>
       <c r="AC469" s="1"/>
     </row>
-    <row r="470" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="14"/>
@@ -15912,7 +15928,7 @@
       <c r="AB470" s="1"/>
       <c r="AC470" s="1"/>
     </row>
-    <row r="471" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="14"/>
@@ -15943,7 +15959,7 @@
       <c r="AB471" s="1"/>
       <c r="AC471" s="1"/>
     </row>
-    <row r="472" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="14"/>
@@ -15974,7 +15990,7 @@
       <c r="AB472" s="1"/>
       <c r="AC472" s="1"/>
     </row>
-    <row r="473" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="14"/>
@@ -16005,7 +16021,7 @@
       <c r="AB473" s="1"/>
       <c r="AC473" s="1"/>
     </row>
-    <row r="474" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="14"/>
@@ -16036,7 +16052,7 @@
       <c r="AB474" s="1"/>
       <c r="AC474" s="1"/>
     </row>
-    <row r="475" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="14"/>
@@ -16067,7 +16083,7 @@
       <c r="AB475" s="1"/>
       <c r="AC475" s="1"/>
     </row>
-    <row r="476" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="14"/>
@@ -16098,7 +16114,7 @@
       <c r="AB476" s="1"/>
       <c r="AC476" s="1"/>
     </row>
-    <row r="477" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="14"/>
@@ -16129,7 +16145,7 @@
       <c r="AB477" s="1"/>
       <c r="AC477" s="1"/>
     </row>
-    <row r="478" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="14"/>
@@ -16160,7 +16176,7 @@
       <c r="AB478" s="1"/>
       <c r="AC478" s="1"/>
     </row>
-    <row r="479" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="14"/>
@@ -16191,7 +16207,7 @@
       <c r="AB479" s="1"/>
       <c r="AC479" s="1"/>
     </row>
-    <row r="480" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="14"/>
@@ -16222,7 +16238,7 @@
       <c r="AB480" s="1"/>
       <c r="AC480" s="1"/>
     </row>
-    <row r="481" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="14"/>
@@ -16253,7 +16269,7 @@
       <c r="AB481" s="1"/>
       <c r="AC481" s="1"/>
     </row>
-    <row r="482" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="14"/>
@@ -16284,7 +16300,7 @@
       <c r="AB482" s="1"/>
       <c r="AC482" s="1"/>
     </row>
-    <row r="483" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="14"/>
@@ -16315,7 +16331,7 @@
       <c r="AB483" s="1"/>
       <c r="AC483" s="1"/>
     </row>
-    <row r="484" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="14"/>
@@ -16346,7 +16362,7 @@
       <c r="AB484" s="1"/>
       <c r="AC484" s="1"/>
     </row>
-    <row r="485" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="14"/>
@@ -16377,7 +16393,7 @@
       <c r="AB485" s="1"/>
       <c r="AC485" s="1"/>
     </row>
-    <row r="486" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="14"/>
@@ -16408,7 +16424,7 @@
       <c r="AB486" s="1"/>
       <c r="AC486" s="1"/>
     </row>
-    <row r="487" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="14"/>
@@ -16439,7 +16455,7 @@
       <c r="AB487" s="1"/>
       <c r="AC487" s="1"/>
     </row>
-    <row r="488" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="14"/>
@@ -16470,7 +16486,7 @@
       <c r="AB488" s="1"/>
       <c r="AC488" s="1"/>
     </row>
-    <row r="489" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="14"/>
@@ -16501,7 +16517,7 @@
       <c r="AB489" s="1"/>
       <c r="AC489" s="1"/>
     </row>
-    <row r="490" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="14"/>
@@ -16532,7 +16548,7 @@
       <c r="AB490" s="1"/>
       <c r="AC490" s="1"/>
     </row>
-    <row r="491" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="14"/>
@@ -16563,7 +16579,7 @@
       <c r="AB491" s="1"/>
       <c r="AC491" s="1"/>
     </row>
-    <row r="492" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="14"/>
@@ -16594,7 +16610,7 @@
       <c r="AB492" s="1"/>
       <c r="AC492" s="1"/>
     </row>
-    <row r="493" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="14"/>
@@ -16625,7 +16641,7 @@
       <c r="AB493" s="1"/>
       <c r="AC493" s="1"/>
     </row>
-    <row r="494" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="14"/>
@@ -16656,7 +16672,7 @@
       <c r="AB494" s="1"/>
       <c r="AC494" s="1"/>
     </row>
-    <row r="495" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="14"/>
@@ -16687,7 +16703,7 @@
       <c r="AB495" s="1"/>
       <c r="AC495" s="1"/>
     </row>
-    <row r="496" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="14"/>
@@ -16718,7 +16734,7 @@
       <c r="AB496" s="1"/>
       <c r="AC496" s="1"/>
     </row>
-    <row r="497" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="14"/>
@@ -16749,7 +16765,7 @@
       <c r="AB497" s="1"/>
       <c r="AC497" s="1"/>
     </row>
-    <row r="498" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="14"/>
@@ -16780,7 +16796,7 @@
       <c r="AB498" s="1"/>
       <c r="AC498" s="1"/>
     </row>
-    <row r="499" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="14"/>
@@ -16811,7 +16827,7 @@
       <c r="AB499" s="1"/>
       <c r="AC499" s="1"/>
     </row>
-    <row r="500" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="14"/>
@@ -16842,7 +16858,7 @@
       <c r="AB500" s="1"/>
       <c r="AC500" s="1"/>
     </row>
-    <row r="501" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="14"/>
@@ -16873,7 +16889,7 @@
       <c r="AB501" s="1"/>
       <c r="AC501" s="1"/>
     </row>
-    <row r="502" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="14"/>
@@ -16904,7 +16920,7 @@
       <c r="AB502" s="1"/>
       <c r="AC502" s="1"/>
     </row>
-    <row r="503" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="14"/>
@@ -16935,7 +16951,7 @@
       <c r="AB503" s="1"/>
       <c r="AC503" s="1"/>
     </row>
-    <row r="504" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="14"/>
@@ -16966,7 +16982,7 @@
       <c r="AB504" s="1"/>
       <c r="AC504" s="1"/>
     </row>
-    <row r="505" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="14"/>
@@ -16997,7 +17013,7 @@
       <c r="AB505" s="1"/>
       <c r="AC505" s="1"/>
     </row>
-    <row r="506" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="14"/>
@@ -17028,7 +17044,7 @@
       <c r="AB506" s="1"/>
       <c r="AC506" s="1"/>
     </row>
-    <row r="507" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="14"/>
@@ -17059,7 +17075,7 @@
       <c r="AB507" s="1"/>
       <c r="AC507" s="1"/>
     </row>
-    <row r="508" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="14"/>
@@ -17090,7 +17106,7 @@
       <c r="AB508" s="1"/>
       <c r="AC508" s="1"/>
     </row>
-    <row r="509" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="14"/>
@@ -17121,7 +17137,7 @@
       <c r="AB509" s="1"/>
       <c r="AC509" s="1"/>
     </row>
-    <row r="510" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="14"/>
@@ -17152,7 +17168,7 @@
       <c r="AB510" s="1"/>
       <c r="AC510" s="1"/>
     </row>
-    <row r="511" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="14"/>
@@ -17183,7 +17199,7 @@
       <c r="AB511" s="1"/>
       <c r="AC511" s="1"/>
     </row>
-    <row r="512" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="14"/>
@@ -17214,7 +17230,7 @@
       <c r="AB512" s="1"/>
       <c r="AC512" s="1"/>
     </row>
-    <row r="513" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="14"/>
@@ -17245,7 +17261,7 @@
       <c r="AB513" s="1"/>
       <c r="AC513" s="1"/>
     </row>
-    <row r="514" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="14"/>
@@ -17276,7 +17292,7 @@
       <c r="AB514" s="1"/>
       <c r="AC514" s="1"/>
     </row>
-    <row r="515" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="14"/>
@@ -17307,7 +17323,7 @@
       <c r="AB515" s="1"/>
       <c r="AC515" s="1"/>
     </row>
-    <row r="516" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="14"/>
@@ -17338,7 +17354,7 @@
       <c r="AB516" s="1"/>
       <c r="AC516" s="1"/>
     </row>
-    <row r="517" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="14"/>
@@ -17369,7 +17385,7 @@
       <c r="AB517" s="1"/>
       <c r="AC517" s="1"/>
     </row>
-    <row r="518" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="14"/>
@@ -17400,7 +17416,7 @@
       <c r="AB518" s="1"/>
       <c r="AC518" s="1"/>
     </row>
-    <row r="519" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="14"/>
@@ -17431,7 +17447,7 @@
       <c r="AB519" s="1"/>
       <c r="AC519" s="1"/>
     </row>
-    <row r="520" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="14"/>
@@ -17462,7 +17478,7 @@
       <c r="AB520" s="1"/>
       <c r="AC520" s="1"/>
     </row>
-    <row r="521" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="14"/>
@@ -17493,7 +17509,7 @@
       <c r="AB521" s="1"/>
       <c r="AC521" s="1"/>
     </row>
-    <row r="522" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="14"/>
@@ -17524,7 +17540,7 @@
       <c r="AB522" s="1"/>
       <c r="AC522" s="1"/>
     </row>
-    <row r="523" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="14"/>
@@ -17555,7 +17571,7 @@
       <c r="AB523" s="1"/>
       <c r="AC523" s="1"/>
     </row>
-    <row r="524" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="14"/>
@@ -17586,7 +17602,7 @@
       <c r="AB524" s="1"/>
       <c r="AC524" s="1"/>
     </row>
-    <row r="525" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="14"/>
@@ -17617,7 +17633,7 @@
       <c r="AB525" s="1"/>
       <c r="AC525" s="1"/>
     </row>
-    <row r="526" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="14"/>
@@ -17648,7 +17664,7 @@
       <c r="AB526" s="1"/>
       <c r="AC526" s="1"/>
     </row>
-    <row r="527" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="14"/>
@@ -17679,7 +17695,7 @@
       <c r="AB527" s="1"/>
       <c r="AC527" s="1"/>
     </row>
-    <row r="528" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="14"/>
@@ -17710,7 +17726,7 @@
       <c r="AB528" s="1"/>
       <c r="AC528" s="1"/>
     </row>
-    <row r="529" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="14"/>
@@ -17741,7 +17757,7 @@
       <c r="AB529" s="1"/>
       <c r="AC529" s="1"/>
     </row>
-    <row r="530" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="14"/>
@@ -17772,7 +17788,7 @@
       <c r="AB530" s="1"/>
       <c r="AC530" s="1"/>
     </row>
-    <row r="531" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="14"/>
@@ -17803,7 +17819,7 @@
       <c r="AB531" s="1"/>
       <c r="AC531" s="1"/>
     </row>
-    <row r="532" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="14"/>
@@ -17834,7 +17850,7 @@
       <c r="AB532" s="1"/>
       <c r="AC532" s="1"/>
     </row>
-    <row r="533" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="14"/>
@@ -17865,7 +17881,7 @@
       <c r="AB533" s="1"/>
       <c r="AC533" s="1"/>
     </row>
-    <row r="534" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="14"/>
@@ -17896,7 +17912,7 @@
       <c r="AB534" s="1"/>
       <c r="AC534" s="1"/>
     </row>
-    <row r="535" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="14"/>
@@ -17927,7 +17943,7 @@
       <c r="AB535" s="1"/>
       <c r="AC535" s="1"/>
     </row>
-    <row r="536" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="14"/>
@@ -17958,7 +17974,7 @@
       <c r="AB536" s="1"/>
       <c r="AC536" s="1"/>
     </row>
-    <row r="537" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="14"/>
@@ -17989,7 +18005,7 @@
       <c r="AB537" s="1"/>
       <c r="AC537" s="1"/>
     </row>
-    <row r="538" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="14"/>
@@ -18020,7 +18036,7 @@
       <c r="AB538" s="1"/>
       <c r="AC538" s="1"/>
     </row>
-    <row r="539" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="14"/>
@@ -18051,7 +18067,7 @@
       <c r="AB539" s="1"/>
       <c r="AC539" s="1"/>
     </row>
-    <row r="540" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="14"/>
@@ -18082,7 +18098,7 @@
       <c r="AB540" s="1"/>
       <c r="AC540" s="1"/>
     </row>
-    <row r="541" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="14"/>
@@ -18113,7 +18129,7 @@
       <c r="AB541" s="1"/>
       <c r="AC541" s="1"/>
     </row>
-    <row r="542" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="14"/>
@@ -18144,7 +18160,7 @@
       <c r="AB542" s="1"/>
       <c r="AC542" s="1"/>
     </row>
-    <row r="543" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="14"/>
@@ -18175,7 +18191,7 @@
       <c r="AB543" s="1"/>
       <c r="AC543" s="1"/>
     </row>
-    <row r="544" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="14"/>
@@ -18206,7 +18222,7 @@
       <c r="AB544" s="1"/>
       <c r="AC544" s="1"/>
     </row>
-    <row r="545" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="14"/>
@@ -18237,7 +18253,7 @@
       <c r="AB545" s="1"/>
       <c r="AC545" s="1"/>
     </row>
-    <row r="546" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="14"/>
@@ -18268,7 +18284,7 @@
       <c r="AB546" s="1"/>
       <c r="AC546" s="1"/>
     </row>
-    <row r="547" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="14"/>
@@ -18299,7 +18315,7 @@
       <c r="AB547" s="1"/>
       <c r="AC547" s="1"/>
     </row>
-    <row r="548" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="14"/>
@@ -18330,7 +18346,7 @@
       <c r="AB548" s="1"/>
       <c r="AC548" s="1"/>
     </row>
-    <row r="549" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="14"/>
@@ -18361,7 +18377,7 @@
       <c r="AB549" s="1"/>
       <c r="AC549" s="1"/>
     </row>
-    <row r="550" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="14"/>
@@ -18392,7 +18408,7 @@
       <c r="AB550" s="1"/>
       <c r="AC550" s="1"/>
     </row>
-    <row r="551" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="14"/>
@@ -18423,7 +18439,7 @@
       <c r="AB551" s="1"/>
       <c r="AC551" s="1"/>
     </row>
-    <row r="552" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="14"/>
@@ -18454,7 +18470,7 @@
       <c r="AB552" s="1"/>
       <c r="AC552" s="1"/>
     </row>
-    <row r="553" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="14"/>
@@ -18485,7 +18501,7 @@
       <c r="AB553" s="1"/>
       <c r="AC553" s="1"/>
     </row>
-    <row r="554" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="14"/>
@@ -18516,7 +18532,7 @@
       <c r="AB554" s="1"/>
       <c r="AC554" s="1"/>
     </row>
-    <row r="555" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="14"/>
@@ -18547,7 +18563,7 @@
       <c r="AB555" s="1"/>
       <c r="AC555" s="1"/>
     </row>
-    <row r="556" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="14"/>
@@ -18578,7 +18594,7 @@
       <c r="AB556" s="1"/>
       <c r="AC556" s="1"/>
     </row>
-    <row r="557" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="14"/>
@@ -18609,7 +18625,7 @@
       <c r="AB557" s="1"/>
       <c r="AC557" s="1"/>
     </row>
-    <row r="558" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="14"/>
@@ -18640,7 +18656,7 @@
       <c r="AB558" s="1"/>
       <c r="AC558" s="1"/>
     </row>
-    <row r="559" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="14"/>
@@ -18671,7 +18687,7 @@
       <c r="AB559" s="1"/>
       <c r="AC559" s="1"/>
     </row>
-    <row r="560" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="14"/>
@@ -18702,7 +18718,7 @@
       <c r="AB560" s="1"/>
       <c r="AC560" s="1"/>
     </row>
-    <row r="561" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="14"/>
@@ -18733,7 +18749,7 @@
       <c r="AB561" s="1"/>
       <c r="AC561" s="1"/>
     </row>
-    <row r="562" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="14"/>
@@ -18764,7 +18780,7 @@
       <c r="AB562" s="1"/>
       <c r="AC562" s="1"/>
     </row>
-    <row r="563" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="14"/>
@@ -18795,7 +18811,7 @@
       <c r="AB563" s="1"/>
       <c r="AC563" s="1"/>
     </row>
-    <row r="564" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="14"/>
@@ -18826,7 +18842,7 @@
       <c r="AB564" s="1"/>
       <c r="AC564" s="1"/>
     </row>
-    <row r="565" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="14"/>
@@ -18857,7 +18873,7 @@
       <c r="AB565" s="1"/>
       <c r="AC565" s="1"/>
     </row>
-    <row r="566" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="14"/>
@@ -18888,7 +18904,7 @@
       <c r="AB566" s="1"/>
       <c r="AC566" s="1"/>
     </row>
-    <row r="567" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="14"/>
@@ -18919,7 +18935,7 @@
       <c r="AB567" s="1"/>
       <c r="AC567" s="1"/>
     </row>
-    <row r="568" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="14"/>
@@ -18950,7 +18966,7 @@
       <c r="AB568" s="1"/>
       <c r="AC568" s="1"/>
     </row>
-    <row r="569" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="14"/>
@@ -18981,7 +18997,7 @@
       <c r="AB569" s="1"/>
       <c r="AC569" s="1"/>
     </row>
-    <row r="570" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="14"/>
@@ -19012,7 +19028,7 @@
       <c r="AB570" s="1"/>
       <c r="AC570" s="1"/>
     </row>
-    <row r="571" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="14"/>
@@ -19043,7 +19059,7 @@
       <c r="AB571" s="1"/>
       <c r="AC571" s="1"/>
     </row>
-    <row r="572" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="14"/>
@@ -19074,7 +19090,7 @@
       <c r="AB572" s="1"/>
       <c r="AC572" s="1"/>
     </row>
-    <row r="573" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="14"/>
@@ -19105,7 +19121,7 @@
       <c r="AB573" s="1"/>
       <c r="AC573" s="1"/>
     </row>
-    <row r="574" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="14"/>
@@ -19136,7 +19152,7 @@
       <c r="AB574" s="1"/>
       <c r="AC574" s="1"/>
     </row>
-    <row r="575" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="14"/>
@@ -19167,7 +19183,7 @@
       <c r="AB575" s="1"/>
       <c r="AC575" s="1"/>
     </row>
-    <row r="576" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="14"/>
@@ -19198,7 +19214,7 @@
       <c r="AB576" s="1"/>
       <c r="AC576" s="1"/>
     </row>
-    <row r="577" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="14"/>
@@ -19229,7 +19245,7 @@
       <c r="AB577" s="1"/>
       <c r="AC577" s="1"/>
     </row>
-    <row r="578" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="14"/>
@@ -19260,7 +19276,7 @@
       <c r="AB578" s="1"/>
       <c r="AC578" s="1"/>
     </row>
-    <row r="579" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="14"/>
@@ -19291,7 +19307,7 @@
       <c r="AB579" s="1"/>
       <c r="AC579" s="1"/>
     </row>
-    <row r="580" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="14"/>
@@ -19322,7 +19338,7 @@
       <c r="AB580" s="1"/>
       <c r="AC580" s="1"/>
     </row>
-    <row r="581" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="14"/>
@@ -19353,7 +19369,7 @@
       <c r="AB581" s="1"/>
       <c r="AC581" s="1"/>
     </row>
-    <row r="582" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="14"/>
@@ -19384,7 +19400,7 @@
       <c r="AB582" s="1"/>
       <c r="AC582" s="1"/>
     </row>
-    <row r="583" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="14"/>
@@ -19415,7 +19431,7 @@
       <c r="AB583" s="1"/>
       <c r="AC583" s="1"/>
     </row>
-    <row r="584" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="14"/>
@@ -19446,7 +19462,7 @@
       <c r="AB584" s="1"/>
       <c r="AC584" s="1"/>
     </row>
-    <row r="585" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="14"/>
@@ -19477,7 +19493,7 @@
       <c r="AB585" s="1"/>
       <c r="AC585" s="1"/>
     </row>
-    <row r="586" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="14"/>
@@ -19508,7 +19524,7 @@
       <c r="AB586" s="1"/>
       <c r="AC586" s="1"/>
     </row>
-    <row r="587" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="14"/>
@@ -19539,7 +19555,7 @@
       <c r="AB587" s="1"/>
       <c r="AC587" s="1"/>
     </row>
-    <row r="588" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="14"/>
@@ -19570,7 +19586,7 @@
       <c r="AB588" s="1"/>
       <c r="AC588" s="1"/>
     </row>
-    <row r="589" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="14"/>
@@ -19601,7 +19617,7 @@
       <c r="AB589" s="1"/>
       <c r="AC589" s="1"/>
     </row>
-    <row r="590" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="14"/>
@@ -19632,7 +19648,7 @@
       <c r="AB590" s="1"/>
       <c r="AC590" s="1"/>
     </row>
-    <row r="591" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="14"/>
@@ -19663,7 +19679,7 @@
       <c r="AB591" s="1"/>
       <c r="AC591" s="1"/>
     </row>
-    <row r="592" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="14"/>
@@ -19694,7 +19710,7 @@
       <c r="AB592" s="1"/>
       <c r="AC592" s="1"/>
     </row>
-    <row r="593" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="14"/>
@@ -19725,7 +19741,7 @@
       <c r="AB593" s="1"/>
       <c r="AC593" s="1"/>
     </row>
-    <row r="594" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="14"/>
@@ -19756,7 +19772,7 @@
       <c r="AB594" s="1"/>
       <c r="AC594" s="1"/>
     </row>
-    <row r="595" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="14"/>
@@ -19787,7 +19803,7 @@
       <c r="AB595" s="1"/>
       <c r="AC595" s="1"/>
     </row>
-    <row r="596" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="14"/>
@@ -19818,7 +19834,7 @@
       <c r="AB596" s="1"/>
       <c r="AC596" s="1"/>
     </row>
-    <row r="597" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="14"/>
@@ -19849,7 +19865,7 @@
       <c r="AB597" s="1"/>
       <c r="AC597" s="1"/>
     </row>
-    <row r="598" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="14"/>
@@ -19880,7 +19896,7 @@
       <c r="AB598" s="1"/>
       <c r="AC598" s="1"/>
     </row>
-    <row r="599" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="14"/>
@@ -19911,7 +19927,7 @@
       <c r="AB599" s="1"/>
       <c r="AC599" s="1"/>
     </row>
-    <row r="600" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="14"/>
@@ -19942,7 +19958,7 @@
       <c r="AB600" s="1"/>
       <c r="AC600" s="1"/>
     </row>
-    <row r="601" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="14"/>
@@ -19973,7 +19989,7 @@
       <c r="AB601" s="1"/>
       <c r="AC601" s="1"/>
     </row>
-    <row r="602" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="14"/>
@@ -20004,7 +20020,7 @@
       <c r="AB602" s="1"/>
       <c r="AC602" s="1"/>
     </row>
-    <row r="603" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="14"/>
@@ -20035,7 +20051,7 @@
       <c r="AB603" s="1"/>
       <c r="AC603" s="1"/>
     </row>
-    <row r="604" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="14"/>
@@ -20066,7 +20082,7 @@
       <c r="AB604" s="1"/>
       <c r="AC604" s="1"/>
     </row>
-    <row r="605" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="14"/>
@@ -20097,7 +20113,7 @@
       <c r="AB605" s="1"/>
       <c r="AC605" s="1"/>
     </row>
-    <row r="606" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="14"/>
@@ -20128,7 +20144,7 @@
       <c r="AB606" s="1"/>
       <c r="AC606" s="1"/>
     </row>
-    <row r="607" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="14"/>
@@ -20159,7 +20175,7 @@
       <c r="AB607" s="1"/>
       <c r="AC607" s="1"/>
     </row>
-    <row r="608" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="14"/>
@@ -20190,7 +20206,7 @@
       <c r="AB608" s="1"/>
       <c r="AC608" s="1"/>
     </row>
-    <row r="609" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="14"/>
@@ -20221,7 +20237,7 @@
       <c r="AB609" s="1"/>
       <c r="AC609" s="1"/>
     </row>
-    <row r="610" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="14"/>
@@ -20252,7 +20268,7 @@
       <c r="AB610" s="1"/>
       <c r="AC610" s="1"/>
     </row>
-    <row r="611" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="14"/>
@@ -20283,7 +20299,7 @@
       <c r="AB611" s="1"/>
       <c r="AC611" s="1"/>
     </row>
-    <row r="612" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="14"/>
@@ -20314,7 +20330,7 @@
       <c r="AB612" s="1"/>
       <c r="AC612" s="1"/>
     </row>
-    <row r="613" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="14"/>
@@ -20345,7 +20361,7 @@
       <c r="AB613" s="1"/>
       <c r="AC613" s="1"/>
     </row>
-    <row r="614" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="14"/>
@@ -20376,7 +20392,7 @@
       <c r="AB614" s="1"/>
       <c r="AC614" s="1"/>
     </row>
-    <row r="615" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="14"/>
@@ -20407,7 +20423,7 @@
       <c r="AB615" s="1"/>
       <c r="AC615" s="1"/>
     </row>
-    <row r="616" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="14"/>
@@ -20438,7 +20454,7 @@
       <c r="AB616" s="1"/>
       <c r="AC616" s="1"/>
     </row>
-    <row r="617" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="14"/>
@@ -20469,7 +20485,7 @@
       <c r="AB617" s="1"/>
       <c r="AC617" s="1"/>
     </row>
-    <row r="618" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="14"/>
@@ -20500,7 +20516,7 @@
       <c r="AB618" s="1"/>
       <c r="AC618" s="1"/>
     </row>
-    <row r="619" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="14"/>
@@ -20531,7 +20547,7 @@
       <c r="AB619" s="1"/>
       <c r="AC619" s="1"/>
     </row>
-    <row r="620" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="14"/>
@@ -20562,7 +20578,7 @@
       <c r="AB620" s="1"/>
       <c r="AC620" s="1"/>
     </row>
-    <row r="621" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="14"/>
@@ -20593,7 +20609,7 @@
       <c r="AB621" s="1"/>
       <c r="AC621" s="1"/>
     </row>
-    <row r="622" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="14"/>
@@ -20624,7 +20640,7 @@
       <c r="AB622" s="1"/>
       <c r="AC622" s="1"/>
     </row>
-    <row r="623" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="14"/>
@@ -20655,7 +20671,7 @@
       <c r="AB623" s="1"/>
       <c r="AC623" s="1"/>
     </row>
-    <row r="624" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="14"/>
@@ -20686,7 +20702,7 @@
       <c r="AB624" s="1"/>
       <c r="AC624" s="1"/>
     </row>
-    <row r="625" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="14"/>
@@ -20717,7 +20733,7 @@
       <c r="AB625" s="1"/>
       <c r="AC625" s="1"/>
     </row>
-    <row r="626" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="14"/>
@@ -20748,7 +20764,7 @@
       <c r="AB626" s="1"/>
       <c r="AC626" s="1"/>
     </row>
-    <row r="627" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="14"/>
@@ -20779,7 +20795,7 @@
       <c r="AB627" s="1"/>
       <c r="AC627" s="1"/>
     </row>
-    <row r="628" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="14"/>
@@ -20810,7 +20826,7 @@
       <c r="AB628" s="1"/>
       <c r="AC628" s="1"/>
     </row>
-    <row r="629" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="14"/>
@@ -20841,7 +20857,7 @@
       <c r="AB629" s="1"/>
       <c r="AC629" s="1"/>
     </row>
-    <row r="630" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="14"/>
@@ -20872,7 +20888,7 @@
       <c r="AB630" s="1"/>
       <c r="AC630" s="1"/>
     </row>
-    <row r="631" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="14"/>
@@ -20903,7 +20919,7 @@
       <c r="AB631" s="1"/>
       <c r="AC631" s="1"/>
     </row>
-    <row r="632" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="14"/>
@@ -20934,7 +20950,7 @@
       <c r="AB632" s="1"/>
       <c r="AC632" s="1"/>
     </row>
-    <row r="633" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="14"/>
@@ -20965,7 +20981,7 @@
       <c r="AB633" s="1"/>
       <c r="AC633" s="1"/>
     </row>
-    <row r="634" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="14"/>
@@ -20996,7 +21012,7 @@
       <c r="AB634" s="1"/>
       <c r="AC634" s="1"/>
     </row>
-    <row r="635" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="14"/>
@@ -21027,7 +21043,7 @@
       <c r="AB635" s="1"/>
       <c r="AC635" s="1"/>
     </row>
-    <row r="636" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="14"/>
@@ -21058,7 +21074,7 @@
       <c r="AB636" s="1"/>
       <c r="AC636" s="1"/>
     </row>
-    <row r="637" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="14"/>
@@ -21089,7 +21105,7 @@
       <c r="AB637" s="1"/>
       <c r="AC637" s="1"/>
     </row>
-    <row r="638" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="14"/>
@@ -21120,7 +21136,7 @@
       <c r="AB638" s="1"/>
       <c r="AC638" s="1"/>
     </row>
-    <row r="639" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="14"/>
@@ -21151,7 +21167,7 @@
       <c r="AB639" s="1"/>
       <c r="AC639" s="1"/>
     </row>
-    <row r="640" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="14"/>
@@ -21182,7 +21198,7 @@
       <c r="AB640" s="1"/>
       <c r="AC640" s="1"/>
     </row>
-    <row r="641" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="14"/>
@@ -21213,7 +21229,7 @@
       <c r="AB641" s="1"/>
       <c r="AC641" s="1"/>
     </row>
-    <row r="642" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="14"/>
@@ -21244,7 +21260,7 @@
       <c r="AB642" s="1"/>
       <c r="AC642" s="1"/>
     </row>
-    <row r="643" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="14"/>
@@ -21275,7 +21291,7 @@
       <c r="AB643" s="1"/>
       <c r="AC643" s="1"/>
     </row>
-    <row r="644" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="14"/>
@@ -21306,7 +21322,7 @@
       <c r="AB644" s="1"/>
       <c r="AC644" s="1"/>
     </row>
-    <row r="645" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="14"/>
@@ -21337,7 +21353,7 @@
       <c r="AB645" s="1"/>
       <c r="AC645" s="1"/>
     </row>
-    <row r="646" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="14"/>
@@ -21368,7 +21384,7 @@
       <c r="AB646" s="1"/>
       <c r="AC646" s="1"/>
     </row>
-    <row r="647" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="14"/>
@@ -21399,7 +21415,7 @@
       <c r="AB647" s="1"/>
       <c r="AC647" s="1"/>
     </row>
-    <row r="648" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="14"/>
@@ -21430,7 +21446,7 @@
       <c r="AB648" s="1"/>
       <c r="AC648" s="1"/>
     </row>
-    <row r="649" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="14"/>
@@ -21461,7 +21477,7 @@
       <c r="AB649" s="1"/>
       <c r="AC649" s="1"/>
     </row>
-    <row r="650" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="14"/>
@@ -21492,7 +21508,7 @@
       <c r="AB650" s="1"/>
       <c r="AC650" s="1"/>
     </row>
-    <row r="651" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="14"/>
@@ -21523,7 +21539,7 @@
       <c r="AB651" s="1"/>
       <c r="AC651" s="1"/>
     </row>
-    <row r="652" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="14"/>
@@ -21554,7 +21570,7 @@
       <c r="AB652" s="1"/>
       <c r="AC652" s="1"/>
     </row>
-    <row r="653" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="14"/>
@@ -21585,7 +21601,7 @@
       <c r="AB653" s="1"/>
       <c r="AC653" s="1"/>
     </row>
-    <row r="654" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="14"/>
@@ -21616,7 +21632,7 @@
       <c r="AB654" s="1"/>
       <c r="AC654" s="1"/>
     </row>
-    <row r="655" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="14"/>
@@ -21647,7 +21663,7 @@
       <c r="AB655" s="1"/>
       <c r="AC655" s="1"/>
     </row>
-    <row r="656" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="14"/>
@@ -21678,7 +21694,7 @@
       <c r="AB656" s="1"/>
       <c r="AC656" s="1"/>
     </row>
-    <row r="657" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="14"/>
@@ -21709,7 +21725,7 @@
       <c r="AB657" s="1"/>
       <c r="AC657" s="1"/>
     </row>
-    <row r="658" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="14"/>
@@ -21740,7 +21756,7 @@
       <c r="AB658" s="1"/>
       <c r="AC658" s="1"/>
     </row>
-    <row r="659" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="14"/>
@@ -21771,7 +21787,7 @@
       <c r="AB659" s="1"/>
       <c r="AC659" s="1"/>
     </row>
-    <row r="660" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="14"/>
@@ -21802,7 +21818,7 @@
       <c r="AB660" s="1"/>
       <c r="AC660" s="1"/>
     </row>
-    <row r="661" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="14"/>
@@ -21833,7 +21849,7 @@
       <c r="AB661" s="1"/>
       <c r="AC661" s="1"/>
     </row>
-    <row r="662" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="14"/>
@@ -21864,7 +21880,7 @@
       <c r="AB662" s="1"/>
       <c r="AC662" s="1"/>
     </row>
-    <row r="663" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="14"/>
@@ -21895,7 +21911,7 @@
       <c r="AB663" s="1"/>
       <c r="AC663" s="1"/>
     </row>
-    <row r="664" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="14"/>
@@ -21926,7 +21942,7 @@
       <c r="AB664" s="1"/>
       <c r="AC664" s="1"/>
     </row>
-    <row r="665" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="14"/>
@@ -21957,7 +21973,7 @@
       <c r="AB665" s="1"/>
       <c r="AC665" s="1"/>
     </row>
-    <row r="666" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="14"/>
@@ -21988,7 +22004,7 @@
       <c r="AB666" s="1"/>
       <c r="AC666" s="1"/>
     </row>
-    <row r="667" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="14"/>
@@ -22019,7 +22035,7 @@
       <c r="AB667" s="1"/>
       <c r="AC667" s="1"/>
     </row>
-    <row r="668" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="14"/>
@@ -22050,7 +22066,7 @@
       <c r="AB668" s="1"/>
       <c r="AC668" s="1"/>
     </row>
-    <row r="669" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="14"/>
@@ -22081,7 +22097,7 @@
       <c r="AB669" s="1"/>
       <c r="AC669" s="1"/>
     </row>
-    <row r="670" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="14"/>
@@ -22112,7 +22128,7 @@
       <c r="AB670" s="1"/>
       <c r="AC670" s="1"/>
     </row>
-    <row r="671" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="14"/>
@@ -22143,7 +22159,7 @@
       <c r="AB671" s="1"/>
       <c r="AC671" s="1"/>
     </row>
-    <row r="672" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="14"/>
@@ -22174,7 +22190,7 @@
       <c r="AB672" s="1"/>
       <c r="AC672" s="1"/>
     </row>
-    <row r="673" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="14"/>
@@ -22205,7 +22221,7 @@
       <c r="AB673" s="1"/>
       <c r="AC673" s="1"/>
     </row>
-    <row r="674" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="14"/>
@@ -22236,7 +22252,7 @@
       <c r="AB674" s="1"/>
       <c r="AC674" s="1"/>
     </row>
-    <row r="675" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="14"/>
@@ -22267,7 +22283,7 @@
       <c r="AB675" s="1"/>
       <c r="AC675" s="1"/>
     </row>
-    <row r="676" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="14"/>
@@ -22298,7 +22314,7 @@
       <c r="AB676" s="1"/>
       <c r="AC676" s="1"/>
     </row>
-    <row r="677" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="14"/>
@@ -22329,7 +22345,7 @@
       <c r="AB677" s="1"/>
       <c r="AC677" s="1"/>
     </row>
-    <row r="678" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="14"/>
@@ -22360,7 +22376,7 @@
       <c r="AB678" s="1"/>
       <c r="AC678" s="1"/>
     </row>
-    <row r="679" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="14"/>
@@ -22391,7 +22407,7 @@
       <c r="AB679" s="1"/>
       <c r="AC679" s="1"/>
     </row>
-    <row r="680" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="14"/>
@@ -22422,7 +22438,7 @@
       <c r="AB680" s="1"/>
       <c r="AC680" s="1"/>
     </row>
-    <row r="681" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="14"/>
@@ -22453,7 +22469,7 @@
       <c r="AB681" s="1"/>
       <c r="AC681" s="1"/>
     </row>
-    <row r="682" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="14"/>
@@ -22484,7 +22500,7 @@
       <c r="AB682" s="1"/>
       <c r="AC682" s="1"/>
     </row>
-    <row r="683" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="14"/>
@@ -22515,7 +22531,7 @@
       <c r="AB683" s="1"/>
       <c r="AC683" s="1"/>
     </row>
-    <row r="684" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="14"/>
@@ -22546,7 +22562,7 @@
       <c r="AB684" s="1"/>
       <c r="AC684" s="1"/>
     </row>
-    <row r="685" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="14"/>
@@ -22577,7 +22593,7 @@
       <c r="AB685" s="1"/>
       <c r="AC685" s="1"/>
     </row>
-    <row r="686" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="14"/>
@@ -22608,7 +22624,7 @@
       <c r="AB686" s="1"/>
       <c r="AC686" s="1"/>
     </row>
-    <row r="687" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="14"/>
@@ -22639,7 +22655,7 @@
       <c r="AB687" s="1"/>
       <c r="AC687" s="1"/>
     </row>
-    <row r="688" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="14"/>
@@ -22670,7 +22686,7 @@
       <c r="AB688" s="1"/>
       <c r="AC688" s="1"/>
     </row>
-    <row r="689" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="14"/>
@@ -22701,7 +22717,7 @@
       <c r="AB689" s="1"/>
       <c r="AC689" s="1"/>
     </row>
-    <row r="690" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="14"/>
@@ -22732,7 +22748,7 @@
       <c r="AB690" s="1"/>
       <c r="AC690" s="1"/>
     </row>
-    <row r="691" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="14"/>
@@ -22763,7 +22779,7 @@
       <c r="AB691" s="1"/>
       <c r="AC691" s="1"/>
     </row>
-    <row r="692" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="14"/>
@@ -22794,7 +22810,7 @@
       <c r="AB692" s="1"/>
       <c r="AC692" s="1"/>
     </row>
-    <row r="693" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="14"/>
@@ -22825,7 +22841,7 @@
       <c r="AB693" s="1"/>
       <c r="AC693" s="1"/>
     </row>
-    <row r="694" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="14"/>
@@ -22856,7 +22872,7 @@
       <c r="AB694" s="1"/>
       <c r="AC694" s="1"/>
     </row>
-    <row r="695" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="14"/>
@@ -22887,7 +22903,7 @@
       <c r="AB695" s="1"/>
       <c r="AC695" s="1"/>
     </row>
-    <row r="696" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="14"/>
@@ -22918,7 +22934,7 @@
       <c r="AB696" s="1"/>
       <c r="AC696" s="1"/>
     </row>
-    <row r="697" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="14"/>
@@ -22949,7 +22965,7 @@
       <c r="AB697" s="1"/>
       <c r="AC697" s="1"/>
     </row>
-    <row r="698" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="14"/>
@@ -22980,7 +22996,7 @@
       <c r="AB698" s="1"/>
       <c r="AC698" s="1"/>
     </row>
-    <row r="699" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="14"/>
@@ -23011,7 +23027,7 @@
       <c r="AB699" s="1"/>
       <c r="AC699" s="1"/>
     </row>
-    <row r="700" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="14"/>
@@ -23042,7 +23058,7 @@
       <c r="AB700" s="1"/>
       <c r="AC700" s="1"/>
     </row>
-    <row r="701" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="14"/>
@@ -23073,7 +23089,7 @@
       <c r="AB701" s="1"/>
       <c r="AC701" s="1"/>
     </row>
-    <row r="702" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="14"/>
@@ -23104,7 +23120,7 @@
       <c r="AB702" s="1"/>
       <c r="AC702" s="1"/>
     </row>
-    <row r="703" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="14"/>
@@ -23135,7 +23151,7 @@
       <c r="AB703" s="1"/>
       <c r="AC703" s="1"/>
     </row>
-    <row r="704" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="14"/>
@@ -23166,7 +23182,7 @@
       <c r="AB704" s="1"/>
       <c r="AC704" s="1"/>
     </row>
-    <row r="705" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="14"/>
@@ -23197,7 +23213,7 @@
       <c r="AB705" s="1"/>
       <c r="AC705" s="1"/>
     </row>
-    <row r="706" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="14"/>
@@ -23228,7 +23244,7 @@
       <c r="AB706" s="1"/>
       <c r="AC706" s="1"/>
     </row>
-    <row r="707" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="14"/>
@@ -23259,7 +23275,7 @@
       <c r="AB707" s="1"/>
       <c r="AC707" s="1"/>
     </row>
-    <row r="708" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="14"/>
@@ -23290,7 +23306,7 @@
       <c r="AB708" s="1"/>
       <c r="AC708" s="1"/>
     </row>
-    <row r="709" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="14"/>
@@ -23321,7 +23337,7 @@
       <c r="AB709" s="1"/>
       <c r="AC709" s="1"/>
     </row>
-    <row r="710" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="14"/>
@@ -23352,7 +23368,7 @@
       <c r="AB710" s="1"/>
       <c r="AC710" s="1"/>
     </row>
-    <row r="711" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="14"/>
@@ -23383,7 +23399,7 @@
       <c r="AB711" s="1"/>
       <c r="AC711" s="1"/>
     </row>
-    <row r="712" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="14"/>
@@ -23414,7 +23430,7 @@
       <c r="AB712" s="1"/>
       <c r="AC712" s="1"/>
     </row>
-    <row r="713" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="14"/>
@@ -23445,7 +23461,7 @@
       <c r="AB713" s="1"/>
       <c r="AC713" s="1"/>
     </row>
-    <row r="714" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="14"/>
@@ -23476,7 +23492,7 @@
       <c r="AB714" s="1"/>
       <c r="AC714" s="1"/>
     </row>
-    <row r="715" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="14"/>
@@ -23507,7 +23523,7 @@
       <c r="AB715" s="1"/>
       <c r="AC715" s="1"/>
     </row>
-    <row r="716" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="14"/>
@@ -23538,7 +23554,7 @@
       <c r="AB716" s="1"/>
       <c r="AC716" s="1"/>
     </row>
-    <row r="717" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="14"/>
@@ -23569,7 +23585,7 @@
       <c r="AB717" s="1"/>
       <c r="AC717" s="1"/>
     </row>
-    <row r="718" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="14"/>
@@ -23600,7 +23616,7 @@
       <c r="AB718" s="1"/>
       <c r="AC718" s="1"/>
     </row>
-    <row r="719" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="14"/>
@@ -23631,7 +23647,7 @@
       <c r="AB719" s="1"/>
       <c r="AC719" s="1"/>
     </row>
-    <row r="720" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="14"/>
@@ -23662,7 +23678,7 @@
       <c r="AB720" s="1"/>
       <c r="AC720" s="1"/>
     </row>
-    <row r="721" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="14"/>
@@ -23693,7 +23709,7 @@
       <c r="AB721" s="1"/>
       <c r="AC721" s="1"/>
     </row>
-    <row r="722" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="14"/>
@@ -23724,7 +23740,7 @@
       <c r="AB722" s="1"/>
       <c r="AC722" s="1"/>
     </row>
-    <row r="723" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="14"/>
@@ -23755,7 +23771,7 @@
       <c r="AB723" s="1"/>
       <c r="AC723" s="1"/>
     </row>
-    <row r="724" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="14"/>
@@ -23786,7 +23802,7 @@
       <c r="AB724" s="1"/>
       <c r="AC724" s="1"/>
     </row>
-    <row r="725" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="14"/>
@@ -23817,7 +23833,7 @@
       <c r="AB725" s="1"/>
       <c r="AC725" s="1"/>
     </row>
-    <row r="726" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="14"/>
@@ -23848,7 +23864,7 @@
       <c r="AB726" s="1"/>
       <c r="AC726" s="1"/>
     </row>
-    <row r="727" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="14"/>
@@ -23879,7 +23895,7 @@
       <c r="AB727" s="1"/>
       <c r="AC727" s="1"/>
     </row>
-    <row r="728" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="14"/>
@@ -23910,7 +23926,7 @@
       <c r="AB728" s="1"/>
       <c r="AC728" s="1"/>
     </row>
-    <row r="729" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="14"/>
@@ -23941,7 +23957,7 @@
       <c r="AB729" s="1"/>
       <c r="AC729" s="1"/>
     </row>
-    <row r="730" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="14"/>
@@ -23972,7 +23988,7 @@
       <c r="AB730" s="1"/>
       <c r="AC730" s="1"/>
     </row>
-    <row r="731" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="14"/>
@@ -24003,7 +24019,7 @@
       <c r="AB731" s="1"/>
       <c r="AC731" s="1"/>
     </row>
-    <row r="732" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="14"/>
@@ -24034,7 +24050,7 @@
       <c r="AB732" s="1"/>
       <c r="AC732" s="1"/>
     </row>
-    <row r="733" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="14"/>
@@ -24065,7 +24081,7 @@
       <c r="AB733" s="1"/>
       <c r="AC733" s="1"/>
     </row>
-    <row r="734" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="14"/>
@@ -24096,7 +24112,7 @@
       <c r="AB734" s="1"/>
       <c r="AC734" s="1"/>
     </row>
-    <row r="735" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="14"/>
@@ -24127,7 +24143,7 @@
       <c r="AB735" s="1"/>
       <c r="AC735" s="1"/>
     </row>
-    <row r="736" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="14"/>
@@ -24158,7 +24174,7 @@
       <c r="AB736" s="1"/>
       <c r="AC736" s="1"/>
     </row>
-    <row r="737" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="14"/>
@@ -24189,7 +24205,7 @@
       <c r="AB737" s="1"/>
       <c r="AC737" s="1"/>
     </row>
-    <row r="738" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="14"/>
@@ -24220,7 +24236,7 @@
       <c r="AB738" s="1"/>
       <c r="AC738" s="1"/>
     </row>
-    <row r="739" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="14"/>
@@ -24251,7 +24267,7 @@
       <c r="AB739" s="1"/>
       <c r="AC739" s="1"/>
     </row>
-    <row r="740" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="14"/>
@@ -24282,7 +24298,7 @@
       <c r="AB740" s="1"/>
       <c r="AC740" s="1"/>
     </row>
-    <row r="741" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="14"/>
@@ -24313,7 +24329,7 @@
       <c r="AB741" s="1"/>
       <c r="AC741" s="1"/>
     </row>
-    <row r="742" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="14"/>
@@ -24344,7 +24360,7 @@
       <c r="AB742" s="1"/>
       <c r="AC742" s="1"/>
     </row>
-    <row r="743" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="14"/>
@@ -24375,7 +24391,7 @@
       <c r="AB743" s="1"/>
       <c r="AC743" s="1"/>
     </row>
-    <row r="744" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="14"/>
@@ -24406,7 +24422,7 @@
       <c r="AB744" s="1"/>
       <c r="AC744" s="1"/>
     </row>
-    <row r="745" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="14"/>
@@ -24437,7 +24453,7 @@
       <c r="AB745" s="1"/>
       <c r="AC745" s="1"/>
     </row>
-    <row r="746" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="14"/>
@@ -24468,7 +24484,7 @@
       <c r="AB746" s="1"/>
       <c r="AC746" s="1"/>
     </row>
-    <row r="747" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="14"/>
@@ -24499,7 +24515,7 @@
       <c r="AB747" s="1"/>
       <c r="AC747" s="1"/>
     </row>
-    <row r="748" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="14"/>
@@ -24530,7 +24546,7 @@
       <c r="AB748" s="1"/>
       <c r="AC748" s="1"/>
     </row>
-    <row r="749" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="14"/>
@@ -24561,7 +24577,7 @@
       <c r="AB749" s="1"/>
       <c r="AC749" s="1"/>
     </row>
-    <row r="750" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="14"/>
@@ -24592,7 +24608,7 @@
       <c r="AB750" s="1"/>
       <c r="AC750" s="1"/>
     </row>
-    <row r="751" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="14"/>
@@ -24623,7 +24639,7 @@
       <c r="AB751" s="1"/>
       <c r="AC751" s="1"/>
     </row>
-    <row r="752" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="14"/>
@@ -24654,7 +24670,7 @@
       <c r="AB752" s="1"/>
       <c r="AC752" s="1"/>
     </row>
-    <row r="753" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="14"/>
@@ -24685,7 +24701,7 @@
       <c r="AB753" s="1"/>
       <c r="AC753" s="1"/>
     </row>
-    <row r="754" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="14"/>
@@ -24716,7 +24732,7 @@
       <c r="AB754" s="1"/>
       <c r="AC754" s="1"/>
     </row>
-    <row r="755" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="14"/>
@@ -24747,7 +24763,7 @@
       <c r="AB755" s="1"/>
       <c r="AC755" s="1"/>
     </row>
-    <row r="756" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="14"/>
@@ -24778,7 +24794,7 @@
       <c r="AB756" s="1"/>
       <c r="AC756" s="1"/>
     </row>
-    <row r="757" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="14"/>
@@ -24809,7 +24825,7 @@
       <c r="AB757" s="1"/>
       <c r="AC757" s="1"/>
     </row>
-    <row r="758" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="14"/>
@@ -24840,7 +24856,7 @@
       <c r="AB758" s="1"/>
       <c r="AC758" s="1"/>
     </row>
-    <row r="759" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="14"/>
@@ -24871,7 +24887,7 @@
       <c r="AB759" s="1"/>
       <c r="AC759" s="1"/>
     </row>
-    <row r="760" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="14"/>
@@ -24902,7 +24918,7 @@
       <c r="AB760" s="1"/>
       <c r="AC760" s="1"/>
     </row>
-    <row r="761" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="14"/>
@@ -24933,7 +24949,7 @@
       <c r="AB761" s="1"/>
       <c r="AC761" s="1"/>
     </row>
-    <row r="762" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="14"/>
@@ -24964,7 +24980,7 @@
       <c r="AB762" s="1"/>
       <c r="AC762" s="1"/>
     </row>
-    <row r="763" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="14"/>
@@ -24995,7 +25011,7 @@
       <c r="AB763" s="1"/>
       <c r="AC763" s="1"/>
     </row>
-    <row r="764" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="14"/>
@@ -25026,7 +25042,7 @@
       <c r="AB764" s="1"/>
       <c r="AC764" s="1"/>
     </row>
-    <row r="765" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="14"/>
@@ -25057,7 +25073,7 @@
       <c r="AB765" s="1"/>
       <c r="AC765" s="1"/>
     </row>
-    <row r="766" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="14"/>
@@ -25088,7 +25104,7 @@
       <c r="AB766" s="1"/>
       <c r="AC766" s="1"/>
     </row>
-    <row r="767" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="14"/>
@@ -25119,7 +25135,7 @@
       <c r="AB767" s="1"/>
       <c r="AC767" s="1"/>
     </row>
-    <row r="768" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="14"/>
@@ -25150,7 +25166,7 @@
       <c r="AB768" s="1"/>
       <c r="AC768" s="1"/>
     </row>
-    <row r="769" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="14"/>
@@ -25181,7 +25197,7 @@
       <c r="AB769" s="1"/>
       <c r="AC769" s="1"/>
     </row>
-    <row r="770" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="14"/>
@@ -25212,7 +25228,7 @@
       <c r="AB770" s="1"/>
       <c r="AC770" s="1"/>
     </row>
-    <row r="771" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="14"/>
@@ -25243,7 +25259,7 @@
       <c r="AB771" s="1"/>
       <c r="AC771" s="1"/>
     </row>
-    <row r="772" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="14"/>
@@ -25274,7 +25290,7 @@
       <c r="AB772" s="1"/>
       <c r="AC772" s="1"/>
     </row>
-    <row r="773" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="14"/>
@@ -25305,7 +25321,7 @@
       <c r="AB773" s="1"/>
       <c r="AC773" s="1"/>
     </row>
-    <row r="774" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="14"/>
@@ -25336,7 +25352,7 @@
       <c r="AB774" s="1"/>
       <c r="AC774" s="1"/>
     </row>
-    <row r="775" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="14"/>
@@ -25367,7 +25383,7 @@
       <c r="AB775" s="1"/>
       <c r="AC775" s="1"/>
     </row>
-    <row r="776" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="14"/>
@@ -25398,7 +25414,7 @@
       <c r="AB776" s="1"/>
       <c r="AC776" s="1"/>
     </row>
-    <row r="777" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="14"/>
@@ -25429,7 +25445,7 @@
       <c r="AB777" s="1"/>
       <c r="AC777" s="1"/>
     </row>
-    <row r="778" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="14"/>
@@ -25460,7 +25476,7 @@
       <c r="AB778" s="1"/>
       <c r="AC778" s="1"/>
     </row>
-    <row r="779" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="14"/>
@@ -25491,7 +25507,7 @@
       <c r="AB779" s="1"/>
       <c r="AC779" s="1"/>
     </row>
-    <row r="780" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="14"/>
@@ -25522,7 +25538,7 @@
       <c r="AB780" s="1"/>
       <c r="AC780" s="1"/>
     </row>
-    <row r="781" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="14"/>
@@ -25553,7 +25569,7 @@
       <c r="AB781" s="1"/>
       <c r="AC781" s="1"/>
     </row>
-    <row r="782" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="14"/>
@@ -25584,7 +25600,7 @@
       <c r="AB782" s="1"/>
       <c r="AC782" s="1"/>
     </row>
-    <row r="783" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="14"/>
@@ -25615,7 +25631,7 @@
       <c r="AB783" s="1"/>
       <c r="AC783" s="1"/>
     </row>
-    <row r="784" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="14"/>
@@ -25646,7 +25662,7 @@
       <c r="AB784" s="1"/>
       <c r="AC784" s="1"/>
     </row>
-    <row r="785" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="14"/>
@@ -25677,7 +25693,7 @@
       <c r="AB785" s="1"/>
       <c r="AC785" s="1"/>
     </row>
-    <row r="786" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="14"/>
@@ -25708,7 +25724,7 @@
       <c r="AB786" s="1"/>
       <c r="AC786" s="1"/>
     </row>
-    <row r="787" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="14"/>
@@ -25739,7 +25755,7 @@
       <c r="AB787" s="1"/>
       <c r="AC787" s="1"/>
     </row>
-    <row r="788" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="14"/>
@@ -25770,7 +25786,7 @@
       <c r="AB788" s="1"/>
       <c r="AC788" s="1"/>
     </row>
-    <row r="789" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="14"/>
@@ -25801,7 +25817,7 @@
       <c r="AB789" s="1"/>
       <c r="AC789" s="1"/>
     </row>
-    <row r="790" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="14"/>
@@ -25832,7 +25848,7 @@
       <c r="AB790" s="1"/>
       <c r="AC790" s="1"/>
     </row>
-    <row r="791" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="14"/>
@@ -25863,7 +25879,7 @@
       <c r="AB791" s="1"/>
       <c r="AC791" s="1"/>
     </row>
-    <row r="792" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="14"/>
@@ -25894,7 +25910,7 @@
       <c r="AB792" s="1"/>
       <c r="AC792" s="1"/>
     </row>
-    <row r="793" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="14"/>
@@ -25925,7 +25941,7 @@
       <c r="AB793" s="1"/>
       <c r="AC793" s="1"/>
     </row>
-    <row r="794" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="14"/>
@@ -25956,7 +25972,7 @@
       <c r="AB794" s="1"/>
       <c r="AC794" s="1"/>
     </row>
-    <row r="795" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="14"/>
@@ -25987,7 +26003,7 @@
       <c r="AB795" s="1"/>
       <c r="AC795" s="1"/>
     </row>
-    <row r="796" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="14"/>
@@ -26018,7 +26034,7 @@
       <c r="AB796" s="1"/>
       <c r="AC796" s="1"/>
     </row>
-    <row r="797" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="14"/>
@@ -26049,7 +26065,7 @@
       <c r="AB797" s="1"/>
       <c r="AC797" s="1"/>
     </row>
-    <row r="798" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="14"/>
@@ -26080,7 +26096,7 @@
       <c r="AB798" s="1"/>
       <c r="AC798" s="1"/>
     </row>
-    <row r="799" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="14"/>
@@ -26111,7 +26127,7 @@
       <c r="AB799" s="1"/>
       <c r="AC799" s="1"/>
     </row>
-    <row r="800" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="14"/>
@@ -26142,7 +26158,7 @@
       <c r="AB800" s="1"/>
       <c r="AC800" s="1"/>
     </row>
-    <row r="801" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="14"/>
@@ -26173,7 +26189,7 @@
       <c r="AB801" s="1"/>
       <c r="AC801" s="1"/>
     </row>
-    <row r="802" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="14"/>
@@ -26204,7 +26220,7 @@
       <c r="AB802" s="1"/>
       <c r="AC802" s="1"/>
     </row>
-    <row r="803" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="14"/>
@@ -26235,7 +26251,7 @@
       <c r="AB803" s="1"/>
       <c r="AC803" s="1"/>
     </row>
-    <row r="804" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="14"/>
@@ -26266,7 +26282,7 @@
       <c r="AB804" s="1"/>
       <c r="AC804" s="1"/>
     </row>
-    <row r="805" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="14"/>
@@ -26297,7 +26313,7 @@
       <c r="AB805" s="1"/>
       <c r="AC805" s="1"/>
     </row>
-    <row r="806" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="14"/>
@@ -26328,7 +26344,7 @@
       <c r="AB806" s="1"/>
       <c r="AC806" s="1"/>
     </row>
-    <row r="807" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="14"/>
@@ -26359,7 +26375,7 @@
       <c r="AB807" s="1"/>
       <c r="AC807" s="1"/>
     </row>
-    <row r="808" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="14"/>
@@ -26390,7 +26406,7 @@
       <c r="AB808" s="1"/>
       <c r="AC808" s="1"/>
     </row>
-    <row r="809" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="14"/>
@@ -26421,7 +26437,7 @@
       <c r="AB809" s="1"/>
       <c r="AC809" s="1"/>
     </row>
-    <row r="810" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="14"/>
@@ -26452,7 +26468,7 @@
       <c r="AB810" s="1"/>
       <c r="AC810" s="1"/>
     </row>
-    <row r="811" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="14"/>
@@ -26483,7 +26499,7 @@
       <c r="AB811" s="1"/>
       <c r="AC811" s="1"/>
     </row>
-    <row r="812" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="14"/>
@@ -26514,7 +26530,7 @@
       <c r="AB812" s="1"/>
       <c r="AC812" s="1"/>
     </row>
-    <row r="813" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="14"/>
@@ -26545,7 +26561,7 @@
       <c r="AB813" s="1"/>
       <c r="AC813" s="1"/>
     </row>
-    <row r="814" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="14"/>
@@ -26576,7 +26592,7 @@
       <c r="AB814" s="1"/>
       <c r="AC814" s="1"/>
     </row>
-    <row r="815" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="14"/>
@@ -26607,7 +26623,7 @@
       <c r="AB815" s="1"/>
       <c r="AC815" s="1"/>
     </row>
-    <row r="816" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="14"/>
@@ -26638,7 +26654,7 @@
       <c r="AB816" s="1"/>
       <c r="AC816" s="1"/>
     </row>
-    <row r="817" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="14"/>
@@ -26669,7 +26685,7 @@
       <c r="AB817" s="1"/>
       <c r="AC817" s="1"/>
     </row>
-    <row r="818" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="14"/>
@@ -26700,7 +26716,7 @@
       <c r="AB818" s="1"/>
       <c r="AC818" s="1"/>
     </row>
-    <row r="819" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="14"/>
@@ -26731,7 +26747,7 @@
       <c r="AB819" s="1"/>
       <c r="AC819" s="1"/>
     </row>
-    <row r="820" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="14"/>
@@ -26762,7 +26778,7 @@
       <c r="AB820" s="1"/>
       <c r="AC820" s="1"/>
     </row>
-    <row r="821" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="14"/>
@@ -26793,7 +26809,7 @@
       <c r="AB821" s="1"/>
       <c r="AC821" s="1"/>
     </row>
-    <row r="822" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="14"/>
@@ -26824,7 +26840,7 @@
       <c r="AB822" s="1"/>
       <c r="AC822" s="1"/>
     </row>
-    <row r="823" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="14"/>
@@ -26855,7 +26871,7 @@
       <c r="AB823" s="1"/>
       <c r="AC823" s="1"/>
     </row>
-    <row r="824" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="14"/>
@@ -26886,7 +26902,7 @@
       <c r="AB824" s="1"/>
       <c r="AC824" s="1"/>
     </row>
-    <row r="825" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="14"/>
@@ -26917,7 +26933,7 @@
       <c r="AB825" s="1"/>
       <c r="AC825" s="1"/>
     </row>
-    <row r="826" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="14"/>
@@ -26948,7 +26964,7 @@
       <c r="AB826" s="1"/>
       <c r="AC826" s="1"/>
     </row>
-    <row r="827" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="14"/>
@@ -26979,7 +26995,7 @@
       <c r="AB827" s="1"/>
       <c r="AC827" s="1"/>
     </row>
-    <row r="828" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="14"/>
@@ -27010,7 +27026,7 @@
       <c r="AB828" s="1"/>
       <c r="AC828" s="1"/>
     </row>
-    <row r="829" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="14"/>
@@ -27041,7 +27057,7 @@
       <c r="AB829" s="1"/>
       <c r="AC829" s="1"/>
     </row>
-    <row r="830" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="14"/>
@@ -27072,7 +27088,7 @@
       <c r="AB830" s="1"/>
       <c r="AC830" s="1"/>
     </row>
-    <row r="831" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="14"/>
@@ -27103,7 +27119,7 @@
       <c r="AB831" s="1"/>
       <c r="AC831" s="1"/>
     </row>
-    <row r="832" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="14"/>
@@ -27134,7 +27150,7 @@
       <c r="AB832" s="1"/>
       <c r="AC832" s="1"/>
     </row>
-    <row r="833" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="14"/>
@@ -27165,7 +27181,7 @@
       <c r="AB833" s="1"/>
       <c r="AC833" s="1"/>
     </row>
-    <row r="834" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="14"/>
@@ -27196,7 +27212,7 @@
       <c r="AB834" s="1"/>
       <c r="AC834" s="1"/>
     </row>
-    <row r="835" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="14"/>
@@ -27227,7 +27243,7 @@
       <c r="AB835" s="1"/>
       <c r="AC835" s="1"/>
     </row>
-    <row r="836" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="14"/>
@@ -27258,7 +27274,7 @@
       <c r="AB836" s="1"/>
       <c r="AC836" s="1"/>
     </row>
-    <row r="837" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="14"/>
@@ -27289,7 +27305,7 @@
       <c r="AB837" s="1"/>
       <c r="AC837" s="1"/>
     </row>
-    <row r="838" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="14"/>
@@ -27320,7 +27336,7 @@
       <c r="AB838" s="1"/>
       <c r="AC838" s="1"/>
     </row>
-    <row r="839" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="14"/>
@@ -27351,7 +27367,7 @@
       <c r="AB839" s="1"/>
       <c r="AC839" s="1"/>
     </row>
-    <row r="840" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="14"/>
@@ -27382,7 +27398,7 @@
       <c r="AB840" s="1"/>
       <c r="AC840" s="1"/>
     </row>
-    <row r="841" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="14"/>
@@ -27413,7 +27429,7 @@
       <c r="AB841" s="1"/>
       <c r="AC841" s="1"/>
     </row>
-    <row r="842" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="14"/>
@@ -27444,7 +27460,7 @@
       <c r="AB842" s="1"/>
       <c r="AC842" s="1"/>
     </row>
-    <row r="843" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="14"/>
@@ -27475,7 +27491,7 @@
       <c r="AB843" s="1"/>
       <c r="AC843" s="1"/>
     </row>
-    <row r="844" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="14"/>
@@ -27506,7 +27522,7 @@
       <c r="AB844" s="1"/>
       <c r="AC844" s="1"/>
     </row>
-    <row r="845" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="14"/>
@@ -27537,7 +27553,7 @@
       <c r="AB845" s="1"/>
       <c r="AC845" s="1"/>
     </row>
-    <row r="846" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="14"/>
@@ -27568,7 +27584,7 @@
       <c r="AB846" s="1"/>
       <c r="AC846" s="1"/>
     </row>
-    <row r="847" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="14"/>
@@ -27599,7 +27615,7 @@
       <c r="AB847" s="1"/>
       <c r="AC847" s="1"/>
     </row>
-    <row r="848" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="14"/>
@@ -27630,7 +27646,7 @@
       <c r="AB848" s="1"/>
       <c r="AC848" s="1"/>
     </row>
-    <row r="849" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="14"/>
@@ -27661,7 +27677,7 @@
       <c r="AB849" s="1"/>
       <c r="AC849" s="1"/>
     </row>
-    <row r="850" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="14"/>
@@ -27692,7 +27708,7 @@
       <c r="AB850" s="1"/>
       <c r="AC850" s="1"/>
     </row>
-    <row r="851" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="14"/>
@@ -27723,7 +27739,7 @@
       <c r="AB851" s="1"/>
       <c r="AC851" s="1"/>
     </row>
-    <row r="852" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="14"/>
@@ -27754,7 +27770,7 @@
       <c r="AB852" s="1"/>
       <c r="AC852" s="1"/>
     </row>
-    <row r="853" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="14"/>
@@ -27785,7 +27801,7 @@
       <c r="AB853" s="1"/>
       <c r="AC853" s="1"/>
     </row>
-    <row r="854" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="14"/>
@@ -27816,7 +27832,7 @@
       <c r="AB854" s="1"/>
       <c r="AC854" s="1"/>
     </row>
-    <row r="855" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="14"/>
@@ -27847,7 +27863,7 @@
       <c r="AB855" s="1"/>
       <c r="AC855" s="1"/>
     </row>
-    <row r="856" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="14"/>
@@ -27878,7 +27894,7 @@
       <c r="AB856" s="1"/>
       <c r="AC856" s="1"/>
     </row>
-    <row r="857" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="14"/>
@@ -27909,7 +27925,7 @@
       <c r="AB857" s="1"/>
       <c r="AC857" s="1"/>
     </row>
-    <row r="858" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="14"/>
@@ -27940,7 +27956,7 @@
       <c r="AB858" s="1"/>
       <c r="AC858" s="1"/>
     </row>
-    <row r="859" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="14"/>
@@ -27971,7 +27987,7 @@
       <c r="AB859" s="1"/>
       <c r="AC859" s="1"/>
     </row>
-    <row r="860" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="14"/>
@@ -28002,7 +28018,7 @@
       <c r="AB860" s="1"/>
       <c r="AC860" s="1"/>
     </row>
-    <row r="861" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="14"/>
@@ -28033,7 +28049,7 @@
       <c r="AB861" s="1"/>
       <c r="AC861" s="1"/>
     </row>
-    <row r="862" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="14"/>
@@ -28064,7 +28080,7 @@
       <c r="AB862" s="1"/>
       <c r="AC862" s="1"/>
     </row>
-    <row r="863" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="14"/>
@@ -28095,7 +28111,7 @@
       <c r="AB863" s="1"/>
       <c r="AC863" s="1"/>
     </row>
-    <row r="864" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="14"/>
@@ -28126,7 +28142,7 @@
       <c r="AB864" s="1"/>
       <c r="AC864" s="1"/>
     </row>
-    <row r="865" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="14"/>
@@ -28157,7 +28173,7 @@
       <c r="AB865" s="1"/>
       <c r="AC865" s="1"/>
     </row>
-    <row r="866" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="14"/>
@@ -28188,7 +28204,7 @@
       <c r="AB866" s="1"/>
       <c r="AC866" s="1"/>
     </row>
-    <row r="867" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="14"/>
@@ -28219,7 +28235,7 @@
       <c r="AB867" s="1"/>
       <c r="AC867" s="1"/>
     </row>
-    <row r="868" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="14"/>
@@ -28250,7 +28266,7 @@
       <c r="AB868" s="1"/>
       <c r="AC868" s="1"/>
     </row>
-    <row r="869" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="14"/>
@@ -28281,7 +28297,7 @@
       <c r="AB869" s="1"/>
       <c r="AC869" s="1"/>
     </row>
-    <row r="870" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="14"/>
@@ -28312,7 +28328,7 @@
       <c r="AB870" s="1"/>
       <c r="AC870" s="1"/>
     </row>
-    <row r="871" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="14"/>
@@ -28343,7 +28359,7 @@
       <c r="AB871" s="1"/>
       <c r="AC871" s="1"/>
     </row>
-    <row r="872" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="14"/>
@@ -28374,7 +28390,7 @@
       <c r="AB872" s="1"/>
       <c r="AC872" s="1"/>
     </row>
-    <row r="873" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="14"/>
@@ -28405,7 +28421,7 @@
       <c r="AB873" s="1"/>
       <c r="AC873" s="1"/>
     </row>
-    <row r="874" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="14"/>
@@ -28436,7 +28452,7 @@
       <c r="AB874" s="1"/>
       <c r="AC874" s="1"/>
     </row>
-    <row r="875" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="14"/>
@@ -28467,7 +28483,7 @@
       <c r="AB875" s="1"/>
       <c r="AC875" s="1"/>
     </row>
-    <row r="876" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="14"/>
@@ -28498,7 +28514,7 @@
       <c r="AB876" s="1"/>
       <c r="AC876" s="1"/>
     </row>
-    <row r="877" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="14"/>
@@ -28529,7 +28545,7 @@
       <c r="AB877" s="1"/>
       <c r="AC877" s="1"/>
     </row>
-    <row r="878" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="14"/>
@@ -28560,7 +28576,7 @@
       <c r="AB878" s="1"/>
       <c r="AC878" s="1"/>
     </row>
-    <row r="879" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="14"/>
@@ -28591,7 +28607,7 @@
       <c r="AB879" s="1"/>
       <c r="AC879" s="1"/>
     </row>
-    <row r="880" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="14"/>
@@ -28622,7 +28638,7 @@
       <c r="AB880" s="1"/>
       <c r="AC880" s="1"/>
     </row>
-    <row r="881" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="14"/>
@@ -28653,7 +28669,7 @@
       <c r="AB881" s="1"/>
       <c r="AC881" s="1"/>
     </row>
-    <row r="882" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="14"/>
@@ -28684,7 +28700,7 @@
       <c r="AB882" s="1"/>
       <c r="AC882" s="1"/>
     </row>
-    <row r="883" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="14"/>
@@ -28715,7 +28731,7 @@
       <c r="AB883" s="1"/>
       <c r="AC883" s="1"/>
     </row>
-    <row r="884" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="14"/>
@@ -28746,7 +28762,7 @@
       <c r="AB884" s="1"/>
       <c r="AC884" s="1"/>
     </row>
-    <row r="885" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="14"/>
@@ -28777,7 +28793,7 @@
       <c r="AB885" s="1"/>
       <c r="AC885" s="1"/>
     </row>
-    <row r="886" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="14"/>
@@ -28808,7 +28824,7 @@
       <c r="AB886" s="1"/>
       <c r="AC886" s="1"/>
     </row>
-    <row r="887" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="14"/>
@@ -28839,7 +28855,7 @@
       <c r="AB887" s="1"/>
       <c r="AC887" s="1"/>
     </row>
-    <row r="888" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="14"/>
@@ -28870,7 +28886,7 @@
       <c r="AB888" s="1"/>
       <c r="AC888" s="1"/>
     </row>
-    <row r="889" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="14"/>
@@ -28901,7 +28917,7 @@
       <c r="AB889" s="1"/>
       <c r="AC889" s="1"/>
     </row>
-    <row r="890" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="14"/>
@@ -28932,7 +28948,7 @@
       <c r="AB890" s="1"/>
       <c r="AC890" s="1"/>
     </row>
-    <row r="891" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="14"/>
@@ -28963,7 +28979,7 @@
       <c r="AB891" s="1"/>
       <c r="AC891" s="1"/>
     </row>
-    <row r="892" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="14"/>
@@ -28994,7 +29010,7 @@
       <c r="AB892" s="1"/>
       <c r="AC892" s="1"/>
     </row>
-    <row r="893" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="14"/>
@@ -29025,7 +29041,7 @@
       <c r="AB893" s="1"/>
       <c r="AC893" s="1"/>
     </row>
-    <row r="894" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="14"/>
@@ -29056,7 +29072,7 @@
       <c r="AB894" s="1"/>
       <c r="AC894" s="1"/>
     </row>
-    <row r="895" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="14"/>
@@ -29087,7 +29103,7 @@
       <c r="AB895" s="1"/>
       <c r="AC895" s="1"/>
     </row>
-    <row r="896" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="14"/>
@@ -29118,7 +29134,7 @@
       <c r="AB896" s="1"/>
       <c r="AC896" s="1"/>
     </row>
-    <row r="897" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="14"/>
@@ -29149,7 +29165,7 @@
       <c r="AB897" s="1"/>
       <c r="AC897" s="1"/>
     </row>
-    <row r="898" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="14"/>
@@ -29180,7 +29196,7 @@
       <c r="AB898" s="1"/>
       <c r="AC898" s="1"/>
     </row>
-    <row r="899" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="14"/>
@@ -29211,7 +29227,7 @@
       <c r="AB899" s="1"/>
       <c r="AC899" s="1"/>
     </row>
-    <row r="900" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="14"/>
@@ -29242,7 +29258,7 @@
       <c r="AB900" s="1"/>
       <c r="AC900" s="1"/>
     </row>
-    <row r="901" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="14"/>
@@ -29273,7 +29289,7 @@
       <c r="AB901" s="1"/>
       <c r="AC901" s="1"/>
     </row>
-    <row r="902" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="14"/>
@@ -29304,7 +29320,7 @@
       <c r="AB902" s="1"/>
       <c r="AC902" s="1"/>
     </row>
-    <row r="903" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="14"/>
@@ -29335,7 +29351,7 @@
       <c r="AB903" s="1"/>
       <c r="AC903" s="1"/>
     </row>
-    <row r="904" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="14"/>
@@ -29366,7 +29382,7 @@
       <c r="AB904" s="1"/>
       <c r="AC904" s="1"/>
     </row>
-    <row r="905" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="14"/>
@@ -29397,7 +29413,7 @@
       <c r="AB905" s="1"/>
       <c r="AC905" s="1"/>
     </row>
-    <row r="906" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="14"/>
@@ -29428,7 +29444,7 @@
       <c r="AB906" s="1"/>
       <c r="AC906" s="1"/>
     </row>
-    <row r="907" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="14"/>
@@ -29459,7 +29475,7 @@
       <c r="AB907" s="1"/>
       <c r="AC907" s="1"/>
     </row>
-    <row r="908" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="14"/>
@@ -29490,7 +29506,7 @@
       <c r="AB908" s="1"/>
       <c r="AC908" s="1"/>
     </row>
-    <row r="909" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="14"/>
@@ -29521,7 +29537,7 @@
       <c r="AB909" s="1"/>
       <c r="AC909" s="1"/>
     </row>
-    <row r="910" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="14"/>
@@ -29552,7 +29568,7 @@
       <c r="AB910" s="1"/>
       <c r="AC910" s="1"/>
     </row>
-    <row r="911" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="14"/>
@@ -29583,7 +29599,7 @@
       <c r="AB911" s="1"/>
       <c r="AC911" s="1"/>
     </row>
-    <row r="912" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="14"/>
@@ -29614,7 +29630,7 @@
       <c r="AB912" s="1"/>
       <c r="AC912" s="1"/>
     </row>
-    <row r="913" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="14"/>
@@ -29645,7 +29661,7 @@
       <c r="AB913" s="1"/>
       <c r="AC913" s="1"/>
     </row>
-    <row r="914" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="14"/>
@@ -29676,7 +29692,7 @@
       <c r="AB914" s="1"/>
       <c r="AC914" s="1"/>
     </row>
-    <row r="915" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="14"/>
@@ -29707,7 +29723,7 @@
       <c r="AB915" s="1"/>
       <c r="AC915" s="1"/>
     </row>
-    <row r="916" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="14"/>
@@ -29738,7 +29754,7 @@
       <c r="AB916" s="1"/>
       <c r="AC916" s="1"/>
     </row>
-    <row r="917" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="14"/>
@@ -29769,7 +29785,7 @@
       <c r="AB917" s="1"/>
       <c r="AC917" s="1"/>
     </row>
-    <row r="918" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="14"/>
@@ -29800,7 +29816,7 @@
       <c r="AB918" s="1"/>
       <c r="AC918" s="1"/>
     </row>
-    <row r="919" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="14"/>
@@ -29831,7 +29847,7 @@
       <c r="AB919" s="1"/>
       <c r="AC919" s="1"/>
     </row>
-    <row r="920" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="14"/>
@@ -29862,7 +29878,7 @@
       <c r="AB920" s="1"/>
       <c r="AC920" s="1"/>
     </row>
-    <row r="921" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="14"/>
@@ -29893,7 +29909,7 @@
       <c r="AB921" s="1"/>
       <c r="AC921" s="1"/>
     </row>
-    <row r="922" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="14"/>
@@ -29924,7 +29940,7 @@
       <c r="AB922" s="1"/>
       <c r="AC922" s="1"/>
     </row>
-    <row r="923" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="14"/>
@@ -29955,7 +29971,7 @@
       <c r="AB923" s="1"/>
       <c r="AC923" s="1"/>
     </row>
-    <row r="924" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="14"/>
@@ -29986,7 +30002,7 @@
       <c r="AB924" s="1"/>
       <c r="AC924" s="1"/>
     </row>
-    <row r="925" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="14"/>
@@ -30017,7 +30033,7 @@
       <c r="AB925" s="1"/>
       <c r="AC925" s="1"/>
     </row>
-    <row r="926" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="14"/>
@@ -30048,7 +30064,7 @@
       <c r="AB926" s="1"/>
       <c r="AC926" s="1"/>
     </row>
-    <row r="927" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="14"/>
@@ -30079,7 +30095,7 @@
       <c r="AB927" s="1"/>
       <c r="AC927" s="1"/>
     </row>
-    <row r="928" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="14"/>
@@ -30110,7 +30126,7 @@
       <c r="AB928" s="1"/>
       <c r="AC928" s="1"/>
     </row>
-    <row r="929" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="14"/>
@@ -30141,7 +30157,7 @@
       <c r="AB929" s="1"/>
       <c r="AC929" s="1"/>
     </row>
-    <row r="930" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="14"/>
@@ -30172,7 +30188,7 @@
       <c r="AB930" s="1"/>
       <c r="AC930" s="1"/>
     </row>
-    <row r="931" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="14"/>
@@ -30203,7 +30219,7 @@
       <c r="AB931" s="1"/>
       <c r="AC931" s="1"/>
     </row>
-    <row r="932" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="14"/>
@@ -30234,7 +30250,7 @@
       <c r="AB932" s="1"/>
       <c r="AC932" s="1"/>
     </row>
-    <row r="933" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="14"/>
@@ -30265,7 +30281,7 @@
       <c r="AB933" s="1"/>
       <c r="AC933" s="1"/>
     </row>
-    <row r="934" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="14"/>
@@ -30296,7 +30312,7 @@
       <c r="AB934" s="1"/>
       <c r="AC934" s="1"/>
     </row>
-    <row r="935" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="14"/>
@@ -30327,7 +30343,7 @@
       <c r="AB935" s="1"/>
       <c r="AC935" s="1"/>
     </row>
-    <row r="936" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="14"/>
@@ -30358,7 +30374,7 @@
       <c r="AB936" s="1"/>
       <c r="AC936" s="1"/>
     </row>
-    <row r="937" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="14"/>
@@ -30389,7 +30405,7 @@
       <c r="AB937" s="1"/>
       <c r="AC937" s="1"/>
     </row>
-    <row r="938" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="14"/>
@@ -30420,7 +30436,7 @@
       <c r="AB938" s="1"/>
       <c r="AC938" s="1"/>
     </row>
-    <row r="939" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="14"/>
@@ -30451,7 +30467,7 @@
       <c r="AB939" s="1"/>
       <c r="AC939" s="1"/>
     </row>
-    <row r="940" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="14"/>
@@ -30482,7 +30498,7 @@
       <c r="AB940" s="1"/>
       <c r="AC940" s="1"/>
     </row>
-    <row r="941" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="14"/>
@@ -30513,7 +30529,7 @@
       <c r="AB941" s="1"/>
       <c r="AC941" s="1"/>
     </row>
-    <row r="942" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="14"/>
@@ -30544,7 +30560,7 @@
       <c r="AB942" s="1"/>
       <c r="AC942" s="1"/>
     </row>
-    <row r="943" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="14"/>
@@ -30575,7 +30591,7 @@
       <c r="AB943" s="1"/>
       <c r="AC943" s="1"/>
     </row>
-    <row r="944" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="14"/>
@@ -30606,7 +30622,7 @@
       <c r="AB944" s="1"/>
       <c r="AC944" s="1"/>
     </row>
-    <row r="945" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="14"/>
@@ -30637,7 +30653,7 @@
       <c r="AB945" s="1"/>
       <c r="AC945" s="1"/>
     </row>
-    <row r="946" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="14"/>
@@ -30668,7 +30684,7 @@
       <c r="AB946" s="1"/>
       <c r="AC946" s="1"/>
     </row>
-    <row r="947" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="14"/>
@@ -30699,7 +30715,7 @@
       <c r="AB947" s="1"/>
       <c r="AC947" s="1"/>
     </row>
-    <row r="948" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="14"/>
@@ -30730,7 +30746,7 @@
       <c r="AB948" s="1"/>
       <c r="AC948" s="1"/>
     </row>
-    <row r="949" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="14"/>
@@ -30761,7 +30777,7 @@
       <c r="AB949" s="1"/>
       <c r="AC949" s="1"/>
     </row>
-    <row r="950" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="14"/>
@@ -30792,7 +30808,7 @@
       <c r="AB950" s="1"/>
       <c r="AC950" s="1"/>
     </row>
-    <row r="951" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="14"/>
@@ -30823,7 +30839,7 @@
       <c r="AB951" s="1"/>
       <c r="AC951" s="1"/>
     </row>
-    <row r="952" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="14"/>
@@ -30854,7 +30870,7 @@
       <c r="AB952" s="1"/>
       <c r="AC952" s="1"/>
     </row>
-    <row r="953" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="14"/>
@@ -30885,7 +30901,7 @@
       <c r="AB953" s="1"/>
       <c r="AC953" s="1"/>
     </row>
-    <row r="954" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="14"/>
@@ -30916,7 +30932,7 @@
       <c r="AB954" s="1"/>
       <c r="AC954" s="1"/>
     </row>
-    <row r="955" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="14"/>
@@ -30947,7 +30963,7 @@
       <c r="AB955" s="1"/>
       <c r="AC955" s="1"/>
     </row>
-    <row r="956" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="14"/>
@@ -30978,7 +30994,7 @@
       <c r="AB956" s="1"/>
       <c r="AC956" s="1"/>
     </row>
-    <row r="957" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="14"/>
@@ -31009,7 +31025,7 @@
       <c r="AB957" s="1"/>
       <c r="AC957" s="1"/>
     </row>
-    <row r="958" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="14"/>
@@ -31040,7 +31056,7 @@
       <c r="AB958" s="1"/>
       <c r="AC958" s="1"/>
     </row>
-    <row r="959" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="14"/>
@@ -31071,7 +31087,7 @@
       <c r="AB959" s="1"/>
       <c r="AC959" s="1"/>
     </row>
-    <row r="960" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="14"/>
@@ -31102,7 +31118,7 @@
       <c r="AB960" s="1"/>
       <c r="AC960" s="1"/>
     </row>
-    <row r="961" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="14"/>
@@ -31133,7 +31149,7 @@
       <c r="AB961" s="1"/>
       <c r="AC961" s="1"/>
     </row>
-    <row r="962" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="14"/>
@@ -31164,7 +31180,7 @@
       <c r="AB962" s="1"/>
       <c r="AC962" s="1"/>
     </row>
-    <row r="963" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="14"/>
@@ -31195,7 +31211,7 @@
       <c r="AB963" s="1"/>
       <c r="AC963" s="1"/>
     </row>
-    <row r="964" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="14"/>
@@ -31226,7 +31242,7 @@
       <c r="AB964" s="1"/>
       <c r="AC964" s="1"/>
     </row>
-    <row r="965" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="14"/>
@@ -31257,7 +31273,7 @@
       <c r="AB965" s="1"/>
       <c r="AC965" s="1"/>
     </row>
-    <row r="966" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="14"/>
@@ -31288,7 +31304,7 @@
       <c r="AB966" s="1"/>
       <c r="AC966" s="1"/>
     </row>
-    <row r="967" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="14"/>
@@ -31319,7 +31335,7 @@
       <c r="AB967" s="1"/>
       <c r="AC967" s="1"/>
     </row>
-    <row r="968" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="14"/>
@@ -31350,7 +31366,7 @@
       <c r="AB968" s="1"/>
       <c r="AC968" s="1"/>
     </row>
-    <row r="969" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="14"/>
@@ -31381,7 +31397,7 @@
       <c r="AB969" s="1"/>
       <c r="AC969" s="1"/>
     </row>
-    <row r="970" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="14"/>
@@ -31412,7 +31428,7 @@
       <c r="AB970" s="1"/>
       <c r="AC970" s="1"/>
     </row>
-    <row r="971" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="14"/>
@@ -31443,7 +31459,7 @@
       <c r="AB971" s="1"/>
       <c r="AC971" s="1"/>
     </row>
-    <row r="972" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="14"/>
@@ -31474,7 +31490,7 @@
       <c r="AB972" s="1"/>
       <c r="AC972" s="1"/>
     </row>
-    <row r="973" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="14"/>
@@ -31505,7 +31521,7 @@
       <c r="AB973" s="1"/>
       <c r="AC973" s="1"/>
     </row>
-    <row r="974" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="14"/>
@@ -31536,7 +31552,7 @@
       <c r="AB974" s="1"/>
       <c r="AC974" s="1"/>
     </row>
-    <row r="975" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="14"/>
@@ -31567,7 +31583,7 @@
       <c r="AB975" s="1"/>
       <c r="AC975" s="1"/>
     </row>
-    <row r="976" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="14"/>
@@ -31598,7 +31614,7 @@
       <c r="AB976" s="1"/>
       <c r="AC976" s="1"/>
     </row>
-    <row r="977" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="14"/>
@@ -31629,7 +31645,7 @@
       <c r="AB977" s="1"/>
       <c r="AC977" s="1"/>
     </row>
-    <row r="978" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="14"/>
@@ -31660,7 +31676,7 @@
       <c r="AB978" s="1"/>
       <c r="AC978" s="1"/>
     </row>
-    <row r="979" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="14"/>
@@ -31691,7 +31707,7 @@
       <c r="AB979" s="1"/>
       <c r="AC979" s="1"/>
     </row>
-    <row r="980" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="14"/>
@@ -31722,7 +31738,7 @@
       <c r="AB980" s="1"/>
       <c r="AC980" s="1"/>
     </row>
-    <row r="981" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="14"/>
@@ -31753,7 +31769,7 @@
       <c r="AB981" s="1"/>
       <c r="AC981" s="1"/>
     </row>
-    <row r="982" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="14"/>
@@ -31784,7 +31800,7 @@
       <c r="AB982" s="1"/>
       <c r="AC982" s="1"/>
     </row>
-    <row r="983" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="14"/>
@@ -31815,7 +31831,7 @@
       <c r="AB983" s="1"/>
       <c r="AC983" s="1"/>
     </row>
-    <row r="984" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="14"/>
@@ -31846,7 +31862,7 @@
       <c r="AB984" s="1"/>
       <c r="AC984" s="1"/>
     </row>
-    <row r="985" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="14"/>
@@ -31877,7 +31893,7 @@
       <c r="AB985" s="1"/>
       <c r="AC985" s="1"/>
     </row>
-    <row r="986" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="14"/>
@@ -31908,7 +31924,7 @@
       <c r="AB986" s="1"/>
       <c r="AC986" s="1"/>
     </row>
-    <row r="987" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="14"/>
@@ -31954,17 +31970,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF80FF2-0795-8C41-BF00-5819329820BA}">
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -31992,7 +32008,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -32042,7 +32058,7 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -32090,7 +32106,7 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>32</v>
       </c>
@@ -32132,7 +32148,7 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -32174,7 +32190,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>35</v>
       </c>
@@ -32216,7 +32232,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>36</v>
       </c>
@@ -32264,7 +32280,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
@@ -32306,7 +32322,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -32348,7 +32364,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
@@ -32390,7 +32406,7 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>62</v>
       </c>
@@ -32438,7 +32454,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
@@ -32480,7 +32496,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
@@ -32520,7 +32536,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
@@ -32568,7 +32584,7 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>54</v>
       </c>
@@ -32610,7 +32626,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>16</v>
       </c>
@@ -32658,7 +32674,7 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>55</v>
       </c>
@@ -32700,7 +32716,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>37</v>
       </c>
@@ -32748,7 +32764,7 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
@@ -32756,9 +32772,7 @@
       <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8">
         <v>2</v>
       </c>
@@ -32794,7 +32808,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="56" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
@@ -32842,7 +32856,7 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>58</v>
       </c>
@@ -32884,7 +32898,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -32926,7 +32940,7 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="75.599999999999994" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="70" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>39</v>
       </c>
@@ -32974,7 +32988,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -33016,7 +33030,7 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>61</v>
       </c>
@@ -33058,7 +33072,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -33106,7 +33120,7 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
@@ -33148,7 +33162,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="37.799999999999997" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>41</v>
       </c>
@@ -33196,7 +33210,7 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>56</v>
       </c>
@@ -33238,7 +33252,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="88.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="84" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>42</v>
       </c>
@@ -33286,7 +33300,7 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
@@ -33328,7 +33342,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
@@ -33370,7 +33384,7 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
@@ -33412,7 +33426,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>31</v>
       </c>
@@ -33454,27 +33468,23 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:24" ht="75.599999999999994" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:24" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:24" ht="84" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>18</v>
-      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="13" t="s">
         <v>51</v>
       </c>
@@ -33513,13 +33523,13 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" s="16" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" s="16" customFormat="1" ht="56" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -33555,7 +33565,7 @@
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>46</v>
       </c>
@@ -33597,13 +33607,13 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="16" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="15" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
@@ -33639,12 +33649,12 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="28" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D50" s="17"/>
       <c r="F50" s="17">
@@ -33666,12 +33676,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="42" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D51" s="15"/>
       <c r="F51" s="17">
